--- a/MathB_Draft.xlsx
+++ b/MathB_Draft.xlsx
@@ -1,19 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\c1410\Documents\GitHub\CoinFlip\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E33B8EE-CDDB-4E48-B9CE-5B29213FC967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11A300CE-E467-4928-ACAE-999D8E8DCA0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3915" yWindow="795" windowWidth="21270" windowHeight="13950" xr2:uid="{5469C1AF-BC43-4C41-9780-4FFCD086E37A}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{5469C1AF-BC43-4C41-9780-4FFCD086E37A}"/>
   </bookViews>
   <sheets>
-    <sheet name="AAA_SEED" sheetId="1" r:id="rId1"/>
+    <sheet name="overview" sheetId="3" r:id="rId1"/>
+    <sheet name="SP_SEED" sheetId="2" r:id="rId2"/>
+    <sheet name="AAA_SEED" sheetId="1" r:id="rId3"/>
+    <sheet name="AA_SEED" sheetId="4" r:id="rId4"/>
+    <sheet name="A_SEED" sheetId="5" r:id="rId5"/>
+    <sheet name="B_SEED" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,6 +44,40 @@
     <author>Christopher Xi</author>
   </authors>
   <commentList>
+    <comment ref="I9" authorId="0" shapeId="0" xr:uid="{7EF6D165-7D20-4A86-AF90-C49E39E7866B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="1"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">Lohar:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+          </rPr>
+          <t>(Multiplies by 1 - this value)</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Christopher Xi</author>
+  </authors>
+  <commentList>
     <comment ref="I9" authorId="0" shapeId="0" xr:uid="{E1AB621B-080C-46E2-8F0B-2B8E90BA328E}">
       <text>
         <r>
@@ -58,7 +97,108 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+          </rPr>
+          <t>(Multiplies by 1 - this value)</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Christopher Xi</author>
+  </authors>
+  <commentList>
+    <comment ref="I9" authorId="0" shapeId="0" xr:uid="{6F9ED8FE-CEE3-4036-A741-343FE7E1113D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="1"/>
             <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">Lohar:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+          </rPr>
+          <t>(Multiplies by 1 - this value)</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Christopher Xi</author>
+  </authors>
+  <commentList>
+    <comment ref="I9" authorId="0" shapeId="0" xr:uid="{A76AB37A-E2F7-4368-A2C2-E0FEC29E51A3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="1"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">Lohar:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+          </rPr>
+          <t>(Multiplies by 1 - this value)</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Christopher Xi</author>
+  </authors>
+  <commentList>
+    <comment ref="I9" authorId="0" shapeId="0" xr:uid="{10BCAC40-B86B-430D-92D2-F26E8AF244FA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="1"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">Lohar:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
           </rPr>
           <t>(Multiplies by 1 - this value)</t>
         </r>
@@ -69,7 +209,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="35">
   <si>
     <t>Per 10M</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -146,14 +286,79 @@
     <t>NO</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>seed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>weight</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxwin 1 in</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>total max win 1 in</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>total max win freq %</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPECIAL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AAA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ev=avg_win*weight</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>avg_win</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.0000%"/>
     <numFmt numFmtId="177" formatCode="0.000000"/>
+    <numFmt numFmtId="178" formatCode="0.00000000%"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -198,15 +403,26 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="宋体"/>
-      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -263,7 +479,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -294,6 +510,15 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -313,6 +538,100 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="文本框 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{016E3A06-9A2B-480A-BB50-280DDB917698}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4848225" y="2647950"/>
+          <a:ext cx="4800600" cy="4314825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="6000"/>
+            <a:t>Seed:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="6000"/>
+            <a:t>SP</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2800"/>
+            <a:t>Special seed with significently more multiplier (6.3% total) but lowered coin values, and almost no collect.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2800"/>
+            <a:t>Those seeds also comes with a guaranteed x5.</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -384,6 +703,252 @@
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="6000"/>
             <a:t>AAA</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="6000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="文本框 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C728AF34-D72F-484B-8CA0-C697155923B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4848225" y="2647950"/>
+          <a:ext cx="2133600" cy="2066925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="6000"/>
+            <a:t>Seed:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="6000"/>
+            <a:t>AA</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="6000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="文本框 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{146EBFF9-2152-4417-9120-77794A7C5BAA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4848225" y="2647950"/>
+          <a:ext cx="2133600" cy="2066925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="6000"/>
+            <a:t>Seed:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="6000"/>
+            <a:t>A</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="6000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="文本框 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF1E8183-1FAB-4601-A42D-570138EFC941}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4848225" y="2647950"/>
+          <a:ext cx="2133600" cy="2066925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="6000"/>
+            <a:t>Seed:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="6000"/>
+            <a:t>B</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="6000"/>
         </a:p>
@@ -690,10 +1255,611 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF1BBB52-5D44-4CCD-9241-FD2ED7303C3D}">
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="2" width="9" style="10"/>
+    <col min="3" max="3" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.625" style="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="10">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="C2">
+        <v>294.55</v>
+      </c>
+      <c r="D2" s="11">
+        <f>C2/B2</f>
+        <v>98183.333333333328</v>
+      </c>
+      <c r="E2" s="12">
+        <f>1/D2</f>
+        <v>1.0185028008827025E-5</v>
+      </c>
+      <c r="F2">
+        <v>5815.44</v>
+      </c>
+      <c r="G2">
+        <f>B2*F2</f>
+        <v>17.44632</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="10">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="C3">
+        <v>917.43</v>
+      </c>
+      <c r="D3" s="11">
+        <f>C3/B3</f>
+        <v>122324</v>
+      </c>
+      <c r="E3" s="12">
+        <f>1/D3</f>
+        <v>8.1750106275138163E-6</v>
+      </c>
+      <c r="F3">
+        <v>6610.41</v>
+      </c>
+      <c r="G3">
+        <f>B3*F3</f>
+        <v>49.578074999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="10">
+        <v>2.5499999999999998E-2</v>
+      </c>
+      <c r="C4">
+        <v>4132.2299999999996</v>
+      </c>
+      <c r="D4" s="11">
+        <f>C4/B4</f>
+        <v>162048.23529411765</v>
+      </c>
+      <c r="E4" s="12">
+        <f>1/D4</f>
+        <v>6.171002098140713E-6</v>
+      </c>
+      <c r="F4">
+        <v>2986.65</v>
+      </c>
+      <c r="G4">
+        <f>B4*F4</f>
+        <v>76.159575000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="10">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="C5">
+        <v>25000</v>
+      </c>
+      <c r="D5" s="11">
+        <f>C5/B5</f>
+        <v>263157.89473684208</v>
+      </c>
+      <c r="E5" s="12">
+        <f>1/D5</f>
+        <v>3.8000000000000005E-6</v>
+      </c>
+      <c r="F5">
+        <v>1208.3900000000001</v>
+      </c>
+      <c r="G5">
+        <f>B5*F5</f>
+        <v>114.79705000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="10">
+        <v>0.21</v>
+      </c>
+      <c r="C6">
+        <v>250000</v>
+      </c>
+      <c r="D6" s="11">
+        <f>C6/B6</f>
+        <v>1190476.1904761905</v>
+      </c>
+      <c r="E6" s="11">
+        <f>1/D6</f>
+        <v>8.4E-7</v>
+      </c>
+      <c r="F6">
+        <v>460.23</v>
+      </c>
+      <c r="G6">
+        <f>B6*F6</f>
+        <v>96.648300000000006</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AECCE576-D102-4F5C-9B01-9D126464FCEA}">
+  <dimension ref="A1:N20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="2" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" customWidth="1"/>
+    <col min="7" max="7" width="9.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2">
+        <v>10000</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3">
+        <f>B2/10000000</f>
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>100</v>
+      </c>
+      <c r="E2">
+        <v>800</v>
+      </c>
+      <c r="F2" s="3">
+        <f>E2/10000000</f>
+        <v>8.0000000000000007E-5</v>
+      </c>
+      <c r="H2">
+        <f>B15+E8</f>
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3">
+        <v>5000</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3">
+        <f t="shared" ref="C3:C15" si="0">B3/10000000</f>
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>20</v>
+      </c>
+      <c r="E3">
+        <v>2760</v>
+      </c>
+      <c r="F3" s="3">
+        <f t="shared" ref="F3:F8" si="1">E3/10000000</f>
+        <v>2.7599999999999999E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4">
+        <v>2500</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>32400</v>
+      </c>
+      <c r="F4" s="3">
+        <f t="shared" si="1"/>
+        <v>3.2399999999999998E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5">
+        <v>1000</v>
+      </c>
+      <c r="B5">
+        <v>1100</v>
+      </c>
+      <c r="C5" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1E-4</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>122920</v>
+      </c>
+      <c r="F5" s="3">
+        <f t="shared" si="1"/>
+        <v>1.2292000000000001E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6">
+        <v>500</v>
+      </c>
+      <c r="B6">
+        <v>8400</v>
+      </c>
+      <c r="C6" s="3">
+        <f t="shared" si="0"/>
+        <v>8.4000000000000003E-4</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>194120</v>
+      </c>
+      <c r="F6" s="3">
+        <f t="shared" si="1"/>
+        <v>1.9411999999999999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7">
+        <v>250</v>
+      </c>
+      <c r="B7">
+        <v>33500</v>
+      </c>
+      <c r="C7" s="3">
+        <f t="shared" si="0"/>
+        <v>3.3500000000000001E-3</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>277000</v>
+      </c>
+      <c r="F7" s="3">
+        <f t="shared" si="1"/>
+        <v>2.7699999999999999E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="15" thickBot="1">
+      <c r="A8">
+        <v>100</v>
+      </c>
+      <c r="B8">
+        <v>87500</v>
+      </c>
+      <c r="C8" s="3">
+        <f t="shared" si="0"/>
+        <v>8.7500000000000008E-3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8">
+        <f>SUM(E2:E7)</f>
+        <v>630000</v>
+      </c>
+      <c r="F8" s="3">
+        <f t="shared" si="1"/>
+        <v>6.3E-2</v>
+      </c>
+      <c r="I8" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" s="2"/>
+      <c r="N8" s="8">
+        <v>1.5E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="15" thickBot="1">
+      <c r="A9">
+        <v>50</v>
+      </c>
+      <c r="B9">
+        <v>147500</v>
+      </c>
+      <c r="C9" s="3">
+        <f t="shared" si="0"/>
+        <v>1.4749999999999999E-2</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6">
+        <f>SUMPRODUCT(D2:D7, E2:E7)/SUM(E2:E7)</f>
+        <v>3.5081904761904763</v>
+      </c>
+      <c r="I9" t="s">
+        <v>3</v>
+      </c>
+      <c r="K9" s="2"/>
+      <c r="N9" s="3">
+        <v>0.77500000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10">
+        <v>25</v>
+      </c>
+      <c r="B10">
+        <v>267500</v>
+      </c>
+      <c r="C10" s="3">
+        <f t="shared" si="0"/>
+        <v>2.6749999999999999E-2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="2"/>
+      <c r="N10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>610000</v>
+      </c>
+      <c r="C11" s="3">
+        <f t="shared" si="0"/>
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>920000</v>
+      </c>
+      <c r="C12" s="3">
+        <f t="shared" si="0"/>
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>2210000</v>
+      </c>
+      <c r="C13" s="3">
+        <f t="shared" si="0"/>
+        <v>0.221</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" s="9">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>5084500</v>
+      </c>
+      <c r="C14" s="3">
+        <f t="shared" si="0"/>
+        <v>0.50844999999999996</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" s="9">
+        <v>0.02</v>
+      </c>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:14" ht="15" thickBot="1">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15">
+        <f>SUM(B2:B14)</f>
+        <v>9370000</v>
+      </c>
+      <c r="C15" s="3">
+        <f t="shared" si="0"/>
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15" s="9">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="15" thickBot="1">
+      <c r="A16" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="7">
+        <f>SUMPRODUCT(A2:A14, B2:B14)/SUM(B2:B14)</f>
+        <v>6.0503735325506938</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16" s="9">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5">
+      <c r="D17">
+        <v>4</v>
+      </c>
+      <c r="E17" s="9">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5">
+      <c r="D18">
+        <v>5</v>
+      </c>
+      <c r="E18" s="9">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5">
+      <c r="D19">
+        <v>6</v>
+      </c>
+      <c r="E19" s="9">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="20" spans="4:5">
+      <c r="D20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{848E8559-D335-490A-ACC8-3493CAC0BFF7}">
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
@@ -1093,4 +2259,1222 @@
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28479E39-C0E6-4809-B2B0-1A4BA38BE015}">
+  <dimension ref="A1:N20"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="2" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" customWidth="1"/>
+    <col min="7" max="7" width="9.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2">
+        <v>10000</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2" s="3">
+        <f>B2/10000000</f>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D2">
+        <v>100</v>
+      </c>
+      <c r="E2">
+        <v>15</v>
+      </c>
+      <c r="F2" s="3">
+        <f>E2/10000000</f>
+        <v>1.5E-6</v>
+      </c>
+      <c r="H2">
+        <f>B15+E8</f>
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3">
+        <v>5000</v>
+      </c>
+      <c r="B3">
+        <v>140</v>
+      </c>
+      <c r="C3" s="3">
+        <f t="shared" ref="C3:C15" si="0">B3/10000000</f>
+        <v>1.4E-5</v>
+      </c>
+      <c r="D3">
+        <v>20</v>
+      </c>
+      <c r="E3">
+        <v>180</v>
+      </c>
+      <c r="F3" s="3">
+        <f t="shared" ref="F3:F8" si="1">E3/10000000</f>
+        <v>1.8E-5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4">
+        <v>2500</v>
+      </c>
+      <c r="B4">
+        <v>500</v>
+      </c>
+      <c r="C4" s="3">
+        <f t="shared" si="0"/>
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>1545</v>
+      </c>
+      <c r="F4" s="3">
+        <f t="shared" si="1"/>
+        <v>1.5449999999999999E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5">
+        <v>1000</v>
+      </c>
+      <c r="B5">
+        <v>2800</v>
+      </c>
+      <c r="C5" s="3">
+        <f t="shared" si="0"/>
+        <v>2.7999999999999998E-4</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>11260</v>
+      </c>
+      <c r="F5" s="3">
+        <f t="shared" si="1"/>
+        <v>1.126E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6">
+        <v>500</v>
+      </c>
+      <c r="B6">
+        <v>16000</v>
+      </c>
+      <c r="C6" s="3">
+        <f t="shared" si="0"/>
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>42000</v>
+      </c>
+      <c r="F6" s="3">
+        <f t="shared" si="1"/>
+        <v>4.1999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7">
+        <v>250</v>
+      </c>
+      <c r="B7">
+        <v>39000</v>
+      </c>
+      <c r="C7" s="3">
+        <f t="shared" si="0"/>
+        <v>3.8999999999999998E-3</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>165000</v>
+      </c>
+      <c r="F7" s="3">
+        <f t="shared" si="1"/>
+        <v>1.6500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="15" thickBot="1">
+      <c r="A8">
+        <v>100</v>
+      </c>
+      <c r="B8">
+        <v>110000</v>
+      </c>
+      <c r="C8" s="3">
+        <f t="shared" si="0"/>
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8">
+        <f>SUM(E2:E7)</f>
+        <v>220000</v>
+      </c>
+      <c r="F8" s="3">
+        <f t="shared" si="1"/>
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="I8" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" s="2"/>
+      <c r="N8" s="8">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="15" thickBot="1">
+      <c r="A9">
+        <v>50</v>
+      </c>
+      <c r="B9">
+        <v>150000</v>
+      </c>
+      <c r="C9" s="3">
+        <f t="shared" si="0"/>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6">
+        <f>SUMPRODUCT(D2:D7, E2:E7)/SUM(E2:E7)</f>
+        <v>2.4220454545454544</v>
+      </c>
+      <c r="I9" t="s">
+        <v>3</v>
+      </c>
+      <c r="K9" s="2"/>
+      <c r="N9" s="3">
+        <v>0.41499999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10">
+        <v>25</v>
+      </c>
+      <c r="B10">
+        <v>300000</v>
+      </c>
+      <c r="C10" s="3">
+        <f t="shared" si="0"/>
+        <v>0.03</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="2"/>
+      <c r="N10" s="3">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>650000</v>
+      </c>
+      <c r="C11" s="3">
+        <f t="shared" si="0"/>
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>1300000</v>
+      </c>
+      <c r="C12" s="3">
+        <f t="shared" si="0"/>
+        <v>0.13</v>
+      </c>
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>2860000</v>
+      </c>
+      <c r="C13" s="3">
+        <f t="shared" si="0"/>
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" s="9">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>4351550</v>
+      </c>
+      <c r="C14" s="3">
+        <f t="shared" si="0"/>
+        <v>0.43515500000000001</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" s="9">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:14" ht="15" thickBot="1">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15">
+        <f>SUM(B2:B14)</f>
+        <v>9780000</v>
+      </c>
+      <c r="C15" s="3">
+        <f t="shared" si="0"/>
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15" s="9">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="15" thickBot="1">
+      <c r="A16" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="7">
+        <f>SUMPRODUCT(A2:A14, B2:B14)/SUM(B2:B14)</f>
+        <v>7.3283793456032722</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16" s="9">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5">
+      <c r="D17">
+        <v>4</v>
+      </c>
+      <c r="E17" s="9">
+        <v>1.7500000000000002E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5">
+      <c r="D18">
+        <v>5</v>
+      </c>
+      <c r="E18" s="9">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5">
+      <c r="D19">
+        <v>6</v>
+      </c>
+      <c r="E19" s="9">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="20" spans="4:5">
+      <c r="D20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AAD375E-8EDE-4ED3-8BB6-E5C5E84F8631}">
+  <dimension ref="A1:N20"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="2" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" customWidth="1"/>
+    <col min="7" max="7" width="9.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2">
+        <v>10000</v>
+      </c>
+      <c r="B2">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3">
+        <f>B2/10000000</f>
+        <v>7.9999999999999996E-7</v>
+      </c>
+      <c r="D2">
+        <v>100</v>
+      </c>
+      <c r="E2">
+        <v>15</v>
+      </c>
+      <c r="F2" s="3">
+        <f>E2/10000000</f>
+        <v>1.5E-6</v>
+      </c>
+      <c r="H2">
+        <f>B15+E8</f>
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3">
+        <v>5000</v>
+      </c>
+      <c r="B3">
+        <v>122</v>
+      </c>
+      <c r="C3" s="3">
+        <f t="shared" ref="C3:C15" si="0">B3/10000000</f>
+        <v>1.22E-5</v>
+      </c>
+      <c r="D3">
+        <v>20</v>
+      </c>
+      <c r="E3">
+        <v>180</v>
+      </c>
+      <c r="F3" s="3">
+        <f t="shared" ref="F3:F8" si="1">E3/10000000</f>
+        <v>1.8E-5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4">
+        <v>2500</v>
+      </c>
+      <c r="B4">
+        <v>400</v>
+      </c>
+      <c r="C4" s="3">
+        <f t="shared" si="0"/>
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>1545</v>
+      </c>
+      <c r="F4" s="3">
+        <f t="shared" si="1"/>
+        <v>1.5449999999999999E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5">
+        <v>1000</v>
+      </c>
+      <c r="B5">
+        <v>2470</v>
+      </c>
+      <c r="C5" s="3">
+        <f t="shared" si="0"/>
+        <v>2.4699999999999999E-4</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>9260</v>
+      </c>
+      <c r="F5" s="3">
+        <f t="shared" si="1"/>
+        <v>9.2599999999999996E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6">
+        <v>500</v>
+      </c>
+      <c r="B6">
+        <v>14000</v>
+      </c>
+      <c r="C6" s="3">
+        <f t="shared" si="0"/>
+        <v>1.4E-3</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>40000</v>
+      </c>
+      <c r="F6" s="3">
+        <f t="shared" si="1"/>
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7">
+        <v>250</v>
+      </c>
+      <c r="B7">
+        <v>32000</v>
+      </c>
+      <c r="C7" s="3">
+        <f t="shared" si="0"/>
+        <v>3.2000000000000002E-3</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>149000</v>
+      </c>
+      <c r="F7" s="3">
+        <f t="shared" si="1"/>
+        <v>1.49E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="15" thickBot="1">
+      <c r="A8">
+        <v>100</v>
+      </c>
+      <c r="B8">
+        <v>90000</v>
+      </c>
+      <c r="C8" s="3">
+        <f t="shared" si="0"/>
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8">
+        <f>SUM(E2:E7)</f>
+        <v>200000</v>
+      </c>
+      <c r="F8" s="3">
+        <f t="shared" si="1"/>
+        <v>0.02</v>
+      </c>
+      <c r="I8" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" s="2"/>
+      <c r="N8" s="8">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="15" thickBot="1">
+      <c r="A9">
+        <v>50</v>
+      </c>
+      <c r="B9">
+        <v>135000</v>
+      </c>
+      <c r="C9" s="3">
+        <f t="shared" si="0"/>
+        <v>1.35E-2</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6">
+        <f>SUMPRODUCT(D2:D7, E2:E7)/SUM(E2:E7)</f>
+        <v>2.4242499999999998</v>
+      </c>
+      <c r="I9" t="s">
+        <v>3</v>
+      </c>
+      <c r="K9" s="2"/>
+      <c r="N9" s="3">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10">
+        <v>25</v>
+      </c>
+      <c r="B10">
+        <v>275000</v>
+      </c>
+      <c r="C10" s="3">
+        <f t="shared" si="0"/>
+        <v>2.75E-2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="2"/>
+      <c r="N10" s="3">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>600000</v>
+      </c>
+      <c r="C11" s="3">
+        <f t="shared" si="0"/>
+        <v>0.06</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>1400000</v>
+      </c>
+      <c r="C12" s="3">
+        <f t="shared" si="0"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>2851000</v>
+      </c>
+      <c r="C13" s="3">
+        <f t="shared" si="0"/>
+        <v>0.28510000000000002</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" s="9">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>4400000</v>
+      </c>
+      <c r="C14" s="3">
+        <f t="shared" si="0"/>
+        <v>0.44</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" s="9">
+        <v>0.03</v>
+      </c>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:14" ht="15" thickBot="1">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15">
+        <f>SUM(B2:B14)</f>
+        <v>9800000</v>
+      </c>
+      <c r="C15" s="3">
+        <f t="shared" si="0"/>
+        <v>0.98</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15" s="9">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="15" thickBot="1">
+      <c r="A16" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="7">
+        <f>SUMPRODUCT(A2:A14, B2:B14)/SUM(B2:B14)</f>
+        <v>6.6211224489795919</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16" s="9">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5">
+      <c r="D17">
+        <v>4</v>
+      </c>
+      <c r="E17" s="9">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5">
+      <c r="D18">
+        <v>5</v>
+      </c>
+      <c r="E18" s="9">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5">
+      <c r="D19">
+        <v>6</v>
+      </c>
+      <c r="E19" s="9">
+        <v>7.4999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="4:5">
+      <c r="D20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8E559C7-EBD4-4921-BF76-D6D44CAEBB12}">
+  <dimension ref="A1:N20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="2" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" customWidth="1"/>
+    <col min="7" max="7" width="9.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2">
+        <v>10000</v>
+      </c>
+      <c r="B2">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3">
+        <f>B2/10000000</f>
+        <v>5.9999999999999997E-7</v>
+      </c>
+      <c r="D2">
+        <v>100</v>
+      </c>
+      <c r="E2">
+        <v>11</v>
+      </c>
+      <c r="F2" s="3">
+        <f>E2/10000000</f>
+        <v>1.1000000000000001E-6</v>
+      </c>
+      <c r="H2">
+        <f>B15+E8</f>
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3">
+        <v>5000</v>
+      </c>
+      <c r="B3">
+        <v>94</v>
+      </c>
+      <c r="C3" s="3">
+        <f t="shared" ref="C3:C15" si="0">B3/10000000</f>
+        <v>9.3999999999999998E-6</v>
+      </c>
+      <c r="D3">
+        <v>20</v>
+      </c>
+      <c r="E3">
+        <v>159</v>
+      </c>
+      <c r="F3" s="3">
+        <f t="shared" ref="F3:F8" si="1">E3/10000000</f>
+        <v>1.59E-5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4">
+        <v>2500</v>
+      </c>
+      <c r="B4">
+        <v>300</v>
+      </c>
+      <c r="C4" s="3">
+        <f t="shared" si="0"/>
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>1220</v>
+      </c>
+      <c r="F4" s="3">
+        <f t="shared" si="1"/>
+        <v>1.22E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5">
+        <v>1000</v>
+      </c>
+      <c r="B5">
+        <v>2100</v>
+      </c>
+      <c r="C5" s="3">
+        <f t="shared" si="0"/>
+        <v>2.1000000000000001E-4</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>9110</v>
+      </c>
+      <c r="F5" s="3">
+        <f t="shared" si="1"/>
+        <v>9.1100000000000003E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6">
+        <v>500</v>
+      </c>
+      <c r="B6">
+        <v>13000</v>
+      </c>
+      <c r="C6" s="3">
+        <f t="shared" si="0"/>
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>39000</v>
+      </c>
+      <c r="F6" s="3">
+        <f t="shared" si="1"/>
+        <v>3.8999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7">
+        <v>250</v>
+      </c>
+      <c r="B7">
+        <v>31000</v>
+      </c>
+      <c r="C7" s="3">
+        <f t="shared" si="0"/>
+        <v>3.0999999999999999E-3</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>120500</v>
+      </c>
+      <c r="F7" s="3">
+        <f t="shared" si="1"/>
+        <v>1.205E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="15" thickBot="1">
+      <c r="A8">
+        <v>100</v>
+      </c>
+      <c r="B8">
+        <v>85000</v>
+      </c>
+      <c r="C8" s="3">
+        <f t="shared" si="0"/>
+        <v>8.5000000000000006E-3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8">
+        <f>SUM(E2:E7)</f>
+        <v>170000</v>
+      </c>
+      <c r="F8" s="3">
+        <f t="shared" si="1"/>
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="I8" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" s="2"/>
+      <c r="N8" s="8">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="15" thickBot="1">
+      <c r="A9">
+        <v>50</v>
+      </c>
+      <c r="B9">
+        <v>120000</v>
+      </c>
+      <c r="C9" s="3">
+        <f t="shared" si="0"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6">
+        <f>SUMPRODUCT(D2:D7, E2:E7)/SUM(E2:E7)</f>
+        <v>2.470764705882353</v>
+      </c>
+      <c r="I9" t="s">
+        <v>3</v>
+      </c>
+      <c r="K9" s="2"/>
+      <c r="N9" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10">
+        <v>25</v>
+      </c>
+      <c r="B10">
+        <v>250000</v>
+      </c>
+      <c r="C10" s="3">
+        <f t="shared" si="0"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="2"/>
+      <c r="N10" s="3">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>550000</v>
+      </c>
+      <c r="C11" s="3">
+        <f t="shared" si="0"/>
+        <v>5.5E-2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>1407500</v>
+      </c>
+      <c r="C12" s="3">
+        <f t="shared" si="0"/>
+        <v>0.14074999999999999</v>
+      </c>
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>2921000</v>
+      </c>
+      <c r="C13" s="3">
+        <f t="shared" si="0"/>
+        <v>0.29210000000000003</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" s="9">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>4450000</v>
+      </c>
+      <c r="C14" s="3">
+        <f t="shared" si="0"/>
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" s="9">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:14" ht="15" thickBot="1">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15">
+        <f>SUM(B2:B14)</f>
+        <v>9830000</v>
+      </c>
+      <c r="C15" s="3">
+        <f t="shared" si="0"/>
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15" s="9">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="15" thickBot="1">
+      <c r="A16" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="7">
+        <f>SUMPRODUCT(A2:A14, B2:B14)/SUM(B2:B14)</f>
+        <v>6.2268056968463883</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16" s="9">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5">
+      <c r="D17">
+        <v>4</v>
+      </c>
+      <c r="E17" s="9">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5">
+      <c r="D18">
+        <v>5</v>
+      </c>
+      <c r="E18" s="9">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5">
+      <c r="D19">
+        <v>6</v>
+      </c>
+      <c r="E19" s="9">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="4:5">
+      <c r="D20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
 </file>
--- a/MathB_Draft.xlsx
+++ b/MathB_Draft.xlsx
@@ -1,24 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\c1410\Documents\GitHub\CoinFlip\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nanhua\Documents\GitHub\CoinFlip\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11A300CE-E467-4928-ACAE-999D8E8DCA0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB4506C0-D8B2-4642-AF8B-47D6B0F5A866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{5469C1AF-BC43-4C41-9780-4FFCD086E37A}"/>
+    <workbookView xWindow="20" yWindow="20" windowWidth="25580" windowHeight="15260" xr2:uid="{5469C1AF-BC43-4C41-9780-4FFCD086E37A}"/>
   </bookViews>
   <sheets>
     <sheet name="overview" sheetId="3" r:id="rId1"/>
-    <sheet name="SP_SEED" sheetId="2" r:id="rId2"/>
-    <sheet name="AAA_SEED" sheetId="1" r:id="rId3"/>
-    <sheet name="AA_SEED" sheetId="4" r:id="rId4"/>
-    <sheet name="A_SEED" sheetId="5" r:id="rId5"/>
-    <sheet name="B_SEED" sheetId="6" r:id="rId6"/>
+    <sheet name="Special" sheetId="2" r:id="rId2"/>
+    <sheet name="AAA" sheetId="1" r:id="rId3"/>
+    <sheet name="AA" sheetId="4" r:id="rId4"/>
+    <sheet name="A" sheetId="5" r:id="rId5"/>
+    <sheet name="B" sheetId="6" r:id="rId6"/>
+    <sheet name="C" sheetId="7" r:id="rId7"/>
+    <sheet name="D" sheetId="8" r:id="rId8"/>
+    <sheet name="E" sheetId="9" r:id="rId9"/>
+    <sheet name="F" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -63,6 +67,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <charset val="134"/>
           </rPr>
           <t>(Multiplies by 1 - this value)</t>
         </r>
@@ -97,6 +102,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <charset val="134"/>
           </rPr>
           <t>(Multiplies by 1 - this value)</t>
         </r>
@@ -131,6 +137,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <charset val="134"/>
           </rPr>
           <t>(Multiplies by 1 - this value)</t>
         </r>
@@ -165,6 +172,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <charset val="134"/>
           </rPr>
           <t>(Multiplies by 1 - this value)</t>
         </r>
@@ -199,6 +207,147 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>(Multiplies by 1 - this value)</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Christopher Xi</author>
+  </authors>
+  <commentList>
+    <comment ref="I9" authorId="0" shapeId="0" xr:uid="{3AB72031-0F3C-417E-9710-5CFF7B3C2ABE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="1"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">Lohar:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>(Multiplies by 1 - this value)</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Christopher Xi</author>
+  </authors>
+  <commentList>
+    <comment ref="I9" authorId="0" shapeId="0" xr:uid="{DD3A416A-BA74-4BB2-A8EC-8A34C823D204}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="1"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">Lohar:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>(Multiplies by 1 - this value)</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Christopher Xi</author>
+  </authors>
+  <commentList>
+    <comment ref="I9" authorId="0" shapeId="0" xr:uid="{1BD043B7-9191-493D-A3D8-3684A3AB1676}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="1"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">Lohar:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>(Multiplies by 1 - this value)</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Christopher Xi</author>
+  </authors>
+  <commentList>
+    <comment ref="I9" authorId="0" shapeId="0" xr:uid="{C1920D64-303C-4B3C-A726-384C24A2F58F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="1"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">Lohar:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
           </rPr>
           <t>(Multiplies by 1 - this value)</t>
         </r>
@@ -209,7 +358,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="42">
   <si>
     <t>Per 10M</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -350,17 +499,46 @@
     <t>avg_win</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>ev sum</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ev %</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>weight sum</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bonus buy price</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RTP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RTP VERSION</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>max win 1 in</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="176" formatCode="0.0000%"/>
     <numFmt numFmtId="177" formatCode="0.000000"/>
     <numFmt numFmtId="178" formatCode="0.00000000%"/>
+    <numFmt numFmtId="179" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -389,6 +567,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -403,6 +582,7 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="4">
@@ -479,7 +659,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -519,10 +699,22 @@
     <xf numFmtId="178" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="百分比" xfId="1" builtinId="5"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="百分比" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -549,8 +741,8 @@
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -565,8 +757,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4848225" y="2647950"/>
-          <a:ext cx="4800600" cy="4314825"/>
+          <a:off x="4772025" y="2597150"/>
+          <a:ext cx="4648200" cy="5067300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -616,13 +808,6 @@
             <a:rPr lang="en-US" altLang="zh-CN" sz="2800"/>
             <a:t>Special seed with significently more multiplier (6.3% total) but lowered coin values, and almost no collect.</a:t>
           </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="2800"/>
-            <a:t>Those seeds also comes with a guaranteed x5.</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2800"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -710,6 +895,101 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>565150</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="文本框 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80BA4690-8819-4523-9B01-FE026415C1B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7518400" y="2686050"/>
+          <a:ext cx="5187950" cy="3390900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="4000"/>
+            <a:t>Bonus effect</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2800"/>
+            <a:t>Guaranteed 3 out of 3 "good things" from below:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2800"/>
+            <a:t>High value coin (Min. 100x)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2800"/>
+            <a:t>Multiplier</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2800"/>
+            <a:t>Collect</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -787,6 +1067,101 @@
             <a:t>AA</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="6000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>44450</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="文本框 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E237ACD-CD59-411C-9481-E4474F963EEB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7562850" y="2571750"/>
+          <a:ext cx="5187950" cy="3390900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="4000"/>
+            <a:t>Bonus effect</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2800"/>
+            <a:t>Guaranteed 2 out of 3 "good things" from below:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2800"/>
+            <a:t>High value coin (Min. 100x)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2800"/>
+            <a:t>Multiplier</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2800"/>
+            <a:t>Collect</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2800"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -874,6 +1249,101 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="文本框 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{723F1C00-CB4B-42F3-A41F-29057268D656}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7315200" y="2698750"/>
+          <a:ext cx="5187950" cy="3390900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="4000"/>
+            <a:t>Bonus effect</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2800"/>
+            <a:t>Guaranteed 1 out of 3 "good things" from below:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2800"/>
+            <a:t>High value coin (Min. 100x)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2800"/>
+            <a:t>Multiplier</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2800"/>
+            <a:t>Collect</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -949,6 +1419,415 @@
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="6000"/>
             <a:t>B</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="6000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="文本框 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4B298A8-C39E-4634-8600-FE3CB1EB8E2D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7181850" y="2317750"/>
+          <a:ext cx="5187950" cy="3390900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="4000"/>
+            <a:t>Bonus effect</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2800"/>
+            <a:t>No bonus effects for Tier</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2800" baseline="0"/>
+            <a:t> B seeds as well as lower level.</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="文本框 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D8F6EFA-0DEC-4E7F-BC85-BC45FE388B53}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4772025" y="2597150"/>
+          <a:ext cx="2082800" cy="2025650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="6000"/>
+            <a:t>Seed:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="6000"/>
+            <a:t>C</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="6000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="文本框 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19F57946-FD66-4095-9E3D-A6BC635B9AD7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4772025" y="2597150"/>
+          <a:ext cx="2082800" cy="2025650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="6000"/>
+            <a:t>Seed:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="6000"/>
+            <a:t>D</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="6000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="文本框 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DD715A9-565A-4C7C-8C67-B0F542CCC7EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4772025" y="2597150"/>
+          <a:ext cx="2082800" cy="2025650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="6000"/>
+            <a:t>Seed:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="6000"/>
+            <a:t>E</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="6000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="文本框 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9865382-26D4-4199-ABEA-EB72336B3E25}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4772025" y="2597150"/>
+          <a:ext cx="2082800" cy="2025650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="6000"/>
+            <a:t>Seed:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="6000"/>
+            <a:t>F</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="6000"/>
         </a:p>
@@ -1256,196 +2135,1906 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF1BBB52-5D44-4CCD-9241-FD2ED7303C3D}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9" style="10"/>
-    <col min="3" max="3" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.625" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.58203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.9140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="C1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="E1" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="F1" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>34</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
+      <c r="I1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>96</v>
+      </c>
+      <c r="B2" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="10">
+      <c r="C2" s="10">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="C2">
-        <v>294.55</v>
-      </c>
-      <c r="D2" s="11">
-        <f>C2/B2</f>
-        <v>98183.333333333328</v>
-      </c>
-      <c r="E2" s="12">
-        <f>1/D2</f>
-        <v>1.0185028008827025E-5</v>
-      </c>
-      <c r="F2">
-        <v>5815.44</v>
-      </c>
-      <c r="G2">
-        <f>B2*F2</f>
-        <v>17.44632</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
+      <c r="D2" s="14">
+        <v>299.39999999999998</v>
+      </c>
+      <c r="E2" s="13">
+        <f t="shared" ref="E2:E7" si="0">D2/C2</f>
+        <v>99799.999999999985</v>
+      </c>
+      <c r="F2" s="12">
+        <f t="shared" ref="F2:F10" si="1">1/E2</f>
+        <v>1.0020040080160322E-5</v>
+      </c>
+      <c r="G2" s="14">
+        <v>5835.49</v>
+      </c>
+      <c r="H2" s="15">
+        <f t="shared" ref="H2:H10" si="2">C2*G2</f>
+        <v>17.50647</v>
+      </c>
+      <c r="I2" s="3">
+        <f>H2/$J$4</f>
+        <v>3.6374988343527585E-2</v>
+      </c>
+      <c r="J2" s="16">
+        <f>SUM(C2:C10)</f>
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <f>1/SUM(F2:F10)</f>
+        <v>31762.054518586843</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="10">
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="C3">
+      <c r="C3" s="10">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="D3" s="14">
         <v>917.43</v>
       </c>
-      <c r="D3" s="11">
-        <f>C3/B3</f>
-        <v>122324</v>
-      </c>
-      <c r="E3" s="12">
-        <f>1/D3</f>
-        <v>8.1750106275138163E-6</v>
-      </c>
-      <c r="F3">
+      <c r="E3" s="13">
+        <f t="shared" si="0"/>
+        <v>83402.727272727279</v>
+      </c>
+      <c r="F3" s="12">
+        <f t="shared" si="1"/>
+        <v>1.1990015587020263E-5</v>
+      </c>
+      <c r="G3" s="14">
         <v>6610.41</v>
       </c>
-      <c r="G3">
-        <f>B3*F3</f>
-        <v>49.578074999999998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
+      <c r="H3" s="15">
+        <f t="shared" si="2"/>
+        <v>72.71450999999999</v>
+      </c>
+      <c r="I3" s="3">
+        <f>H3/$J$4</f>
+        <v>0.15108639569572391</v>
+      </c>
+      <c r="J3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="10">
-        <v>2.5499999999999998E-2</v>
-      </c>
-      <c r="C4">
+      <c r="C4" s="10">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D4" s="14">
         <v>4132.2299999999996</v>
       </c>
-      <c r="D4" s="11">
-        <f>C4/B4</f>
-        <v>162048.23529411765</v>
-      </c>
-      <c r="E4" s="12">
-        <f>1/D4</f>
-        <v>6.171002098140713E-6</v>
-      </c>
-      <c r="F4">
+      <c r="E4" s="13">
+        <f t="shared" si="0"/>
+        <v>165289.19999999998</v>
+      </c>
+      <c r="F4" s="12">
+        <f t="shared" si="1"/>
+        <v>6.0500020570007003E-6</v>
+      </c>
+      <c r="G4" s="14">
         <v>2986.65</v>
       </c>
-      <c r="G4">
-        <f>B4*F4</f>
-        <v>76.159575000000004</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
+      <c r="H4" s="15">
+        <f t="shared" si="2"/>
+        <v>74.666250000000005</v>
+      </c>
+      <c r="I4" s="3">
+        <f>H4/$J$4</f>
+        <v>0.15514172608212373</v>
+      </c>
+      <c r="J4" s="15">
+        <f>SUM(H2:H10)</f>
+        <v>481.27768000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="10">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="C5">
+      <c r="C5" s="10">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="D5" s="14">
         <v>25000</v>
       </c>
-      <c r="D5" s="11">
-        <f>C5/B5</f>
-        <v>263157.89473684208</v>
-      </c>
-      <c r="E5" s="12">
-        <f>1/D5</f>
-        <v>3.8000000000000005E-6</v>
-      </c>
-      <c r="F5">
+      <c r="E5" s="13">
+        <f t="shared" si="0"/>
+        <v>423728.81355932204</v>
+      </c>
+      <c r="F5" s="12">
+        <f t="shared" si="1"/>
+        <v>2.3599999999999999E-6</v>
+      </c>
+      <c r="G5" s="14">
         <v>1208.3900000000001</v>
       </c>
-      <c r="G5">
-        <f>B5*F5</f>
-        <v>114.79705000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
+      <c r="H5" s="15">
+        <f t="shared" si="2"/>
+        <v>71.295010000000005</v>
+      </c>
+      <c r="I5" s="3">
+        <f>H5/$J$4</f>
+        <v>0.14813695494875226</v>
+      </c>
+      <c r="J5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="10">
-        <v>0.21</v>
-      </c>
-      <c r="C6">
+      <c r="C6" s="10">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="D6" s="14">
         <v>250000</v>
       </c>
-      <c r="D6" s="11">
-        <f>C6/B6</f>
-        <v>1190476.1904761905</v>
-      </c>
-      <c r="E6" s="11">
-        <f>1/D6</f>
-        <v>8.4E-7</v>
-      </c>
-      <c r="F6">
+      <c r="E6" s="13">
+        <f t="shared" si="0"/>
+        <v>1700680.2721088436</v>
+      </c>
+      <c r="F6" s="12">
+        <f t="shared" si="1"/>
+        <v>5.8800000000000002E-7</v>
+      </c>
+      <c r="G6" s="14">
         <v>460.23</v>
       </c>
-      <c r="G6">
-        <f>B6*F6</f>
-        <v>96.648300000000006</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
+      <c r="H6" s="15">
+        <f t="shared" si="2"/>
+        <v>67.653809999999993</v>
+      </c>
+      <c r="I6" s="3">
+        <f>H6/$J$4</f>
+        <v>0.14057126023380098</v>
+      </c>
+      <c r="J6">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
+      <c r="C7" s="10">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="D7" s="14">
+        <v>500000</v>
+      </c>
+      <c r="E7" s="13">
+        <f t="shared" si="0"/>
+        <v>2100840.3361344538</v>
+      </c>
+      <c r="F7" s="12">
+        <f t="shared" si="1"/>
+        <v>4.7600000000000003E-7</v>
+      </c>
+      <c r="G7" s="14">
+        <v>277.39999999999998</v>
+      </c>
+      <c r="H7" s="15">
+        <f t="shared" si="2"/>
+        <v>66.021199999999993</v>
+      </c>
+      <c r="I7" s="3">
+        <f>H7/$J$4</f>
+        <v>0.13717901898130824</v>
+      </c>
+      <c r="J7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
+      <c r="C8" s="10">
+        <v>0.373</v>
+      </c>
+      <c r="D8">
+        <f>10*1000*1000*1000</f>
+        <v>10000000000</v>
+      </c>
+      <c r="E8" s="13">
+        <f t="shared" ref="E8:E10" si="3">D8/C8</f>
+        <v>26809651474.53083</v>
+      </c>
+      <c r="F8" s="12">
+        <f t="shared" si="1"/>
+        <v>3.7300000000000003E-11</v>
+      </c>
+      <c r="G8" s="14">
+        <v>224.23</v>
+      </c>
+      <c r="H8" s="15">
+        <f t="shared" si="2"/>
+        <v>83.637789999999995</v>
+      </c>
+      <c r="I8" s="3">
+        <f>H8/$J$4</f>
+        <v>0.17378281494375553</v>
+      </c>
+      <c r="J8" s="2">
+        <f>J4/J6</f>
+        <v>0.96255536000000008</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
+      <c r="C9" s="10">
+        <v>0.114</v>
+      </c>
+      <c r="D9">
+        <f>10*1000*1000*1000</f>
+        <v>10000000000</v>
+      </c>
+      <c r="E9" s="13">
+        <f t="shared" si="3"/>
+        <v>87719298245.614029</v>
+      </c>
+      <c r="F9" s="12">
+        <f t="shared" si="1"/>
+        <v>1.1400000000000001E-11</v>
+      </c>
+      <c r="G9" s="14">
+        <v>202.51</v>
+      </c>
+      <c r="H9" s="15">
+        <f t="shared" si="2"/>
+        <v>23.08614</v>
+      </c>
+      <c r="I9" s="3">
+        <f>H9/$J$4</f>
+        <v>4.796844100478543E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
         <v>32</v>
+      </c>
+      <c r="C10" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="D10">
+        <f>10*1000*1000*1000</f>
+        <v>10000000000</v>
+      </c>
+      <c r="E10" s="13">
+        <f t="shared" si="3"/>
+        <v>333333333333.33337</v>
+      </c>
+      <c r="F10" s="12">
+        <f t="shared" si="1"/>
+        <v>2.9999999999999997E-12</v>
+      </c>
+      <c r="G10" s="14">
+        <v>156.55000000000001</v>
+      </c>
+      <c r="H10" s="15">
+        <f t="shared" si="2"/>
+        <v>4.6965000000000003</v>
+      </c>
+      <c r="I10" s="3">
+        <f>H10/$J$4</f>
+        <v>9.7583997662222775E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E11" s="13"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="15"/>
+      <c r="J11" t="s">
+        <v>37</v>
+      </c>
+      <c r="K11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>94</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="10">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D12" s="14">
+        <v>299.39999999999998</v>
+      </c>
+      <c r="E12" s="13">
+        <f t="shared" ref="E12:E20" si="4">D12/C12</f>
+        <v>99799.999999999985</v>
+      </c>
+      <c r="F12" s="12">
+        <f t="shared" ref="F12:F20" si="5">1/E12</f>
+        <v>1.0020040080160322E-5</v>
+      </c>
+      <c r="G12" s="14">
+        <v>5835.49</v>
+      </c>
+      <c r="H12" s="15">
+        <f t="shared" ref="H12:H20" si="6">C12*G12</f>
+        <v>17.50647</v>
+      </c>
+      <c r="I12" s="3">
+        <f>H12/$J$4</f>
+        <v>3.6374988343527585E-2</v>
+      </c>
+      <c r="J12" s="16">
+        <f>SUM(C12:C20)</f>
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <f>1/SUM(F12:F20)</f>
+        <v>32827.667549971957</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="10">
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="D13" s="14">
+        <v>917.43</v>
+      </c>
+      <c r="E13" s="13">
+        <f t="shared" si="4"/>
+        <v>87374.28571428571</v>
+      </c>
+      <c r="F13" s="12">
+        <f t="shared" si="5"/>
+        <v>1.1445014878519342E-5</v>
+      </c>
+      <c r="G13" s="14">
+        <v>6610.41</v>
+      </c>
+      <c r="H13" s="15">
+        <f t="shared" si="6"/>
+        <v>69.409305000000003</v>
+      </c>
+      <c r="I13" s="3">
+        <f>H13/$J$4</f>
+        <v>0.1442188322550092</v>
+      </c>
+      <c r="J13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="10">
+        <v>2.35E-2</v>
+      </c>
+      <c r="D14" s="14">
+        <v>4132.2299999999996</v>
+      </c>
+      <c r="E14" s="13">
+        <f t="shared" si="4"/>
+        <v>175839.57446808508</v>
+      </c>
+      <c r="F14" s="12">
+        <f t="shared" si="5"/>
+        <v>5.6870019335806581E-6</v>
+      </c>
+      <c r="G14" s="14">
+        <v>2986.65</v>
+      </c>
+      <c r="H14" s="15">
+        <f t="shared" si="6"/>
+        <v>70.186275000000009</v>
+      </c>
+      <c r="I14" s="3">
+        <f>H14/$J$4</f>
+        <v>0.14583322251719633</v>
+      </c>
+      <c r="J14" s="15">
+        <f>SUM(H12:H20)</f>
+        <v>470.52424000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="10">
+        <v>5.6500000000000002E-2</v>
+      </c>
+      <c r="D15" s="14">
+        <v>25000</v>
+      </c>
+      <c r="E15" s="13">
+        <f t="shared" si="4"/>
+        <v>442477.87610619469</v>
+      </c>
+      <c r="F15" s="12">
+        <f t="shared" si="5"/>
+        <v>2.26E-6</v>
+      </c>
+      <c r="G15" s="14">
+        <v>1208.3900000000001</v>
+      </c>
+      <c r="H15" s="15">
+        <f t="shared" si="6"/>
+        <v>68.274035000000012</v>
+      </c>
+      <c r="I15" s="3">
+        <f>H15/$J$4</f>
+        <v>0.14185996533227971</v>
+      </c>
+      <c r="J15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="10">
+        <v>0.14349999999999999</v>
+      </c>
+      <c r="D16" s="14">
+        <v>250000</v>
+      </c>
+      <c r="E16" s="13">
+        <f t="shared" si="4"/>
+        <v>1742160.2787456447</v>
+      </c>
+      <c r="F16" s="12">
+        <f t="shared" si="5"/>
+        <v>5.7399999999999993E-7</v>
+      </c>
+      <c r="G16" s="14">
+        <v>460.23</v>
+      </c>
+      <c r="H16" s="15">
+        <f t="shared" si="6"/>
+        <v>66.043004999999994</v>
+      </c>
+      <c r="I16" s="3">
+        <f>H16/$J$4</f>
+        <v>0.13722432546632951</v>
+      </c>
+      <c r="J16">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="10">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="D17" s="14">
+        <v>500000</v>
+      </c>
+      <c r="E17" s="13">
+        <f t="shared" si="4"/>
+        <v>2100840.3361344538</v>
+      </c>
+      <c r="F17" s="12">
+        <f t="shared" si="5"/>
+        <v>4.7600000000000003E-7</v>
+      </c>
+      <c r="G17" s="14">
+        <v>277.39999999999998</v>
+      </c>
+      <c r="H17" s="15">
+        <f t="shared" si="6"/>
+        <v>66.021199999999993</v>
+      </c>
+      <c r="I17" s="3">
+        <f>H17/$J$4</f>
+        <v>0.13717901898130824</v>
+      </c>
+      <c r="J17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="10">
+        <v>0.375</v>
+      </c>
+      <c r="D18">
+        <f>10*1000*1000*1000</f>
+        <v>10000000000</v>
+      </c>
+      <c r="E18" s="13">
+        <f t="shared" si="4"/>
+        <v>26666666666.666668</v>
+      </c>
+      <c r="F18" s="12">
+        <f t="shared" si="5"/>
+        <v>3.75E-11</v>
+      </c>
+      <c r="G18" s="14">
+        <v>224.23</v>
+      </c>
+      <c r="H18" s="15">
+        <f t="shared" si="6"/>
+        <v>84.086249999999993</v>
+      </c>
+      <c r="I18" s="3">
+        <f>H18/$J$4</f>
+        <v>0.17471462628393652</v>
+      </c>
+      <c r="J18" s="2">
+        <f>J14/J16</f>
+        <v>0.94104848000000008</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="10">
+        <v>0.12</v>
+      </c>
+      <c r="D19">
+        <f>10*1000*1000*1000</f>
+        <v>10000000000</v>
+      </c>
+      <c r="E19" s="13">
+        <f t="shared" si="4"/>
+        <v>83333333333.333344</v>
+      </c>
+      <c r="F19" s="12">
+        <f t="shared" si="5"/>
+        <v>1.1999999999999999E-11</v>
+      </c>
+      <c r="G19" s="14">
+        <v>202.51</v>
+      </c>
+      <c r="H19" s="15">
+        <f t="shared" si="6"/>
+        <v>24.301199999999998</v>
+      </c>
+      <c r="I19" s="3">
+        <f>H19/$J$4</f>
+        <v>5.0493095794510973E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="D20">
+        <f>10*1000*1000*1000</f>
+        <v>10000000000</v>
+      </c>
+      <c r="E20" s="13">
+        <f t="shared" si="4"/>
+        <v>333333333333.33337</v>
+      </c>
+      <c r="F20" s="12">
+        <f t="shared" si="5"/>
+        <v>2.9999999999999997E-12</v>
+      </c>
+      <c r="G20" s="14">
+        <v>156.55000000000001</v>
+      </c>
+      <c r="H20" s="15">
+        <f t="shared" si="6"/>
+        <v>4.6965000000000003</v>
+      </c>
+      <c r="I20" s="3">
+        <f>H20/$J$4</f>
+        <v>9.7583997662222775E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E21" s="13"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="15"/>
+      <c r="J21" t="s">
+        <v>37</v>
+      </c>
+      <c r="K21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>92</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="10">
+        <v>2.8E-3</v>
+      </c>
+      <c r="D22" s="14">
+        <v>299.39999999999998</v>
+      </c>
+      <c r="E22" s="13">
+        <f t="shared" ref="E22:E30" si="7">D22/C22</f>
+        <v>106928.57142857142</v>
+      </c>
+      <c r="F22" s="12">
+        <f t="shared" ref="F22:F30" si="8">1/E22</f>
+        <v>9.3520374081496332E-6</v>
+      </c>
+      <c r="G22" s="14">
+        <v>5835.49</v>
+      </c>
+      <c r="H22" s="15">
+        <f t="shared" ref="H22:H30" si="9">C22*G22</f>
+        <v>16.339372000000001</v>
+      </c>
+      <c r="I22" s="3">
+        <f>H22/$J$4</f>
+        <v>3.3949989120625745E-2</v>
+      </c>
+      <c r="J22" s="16">
+        <f>SUM(C22:C30)</f>
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <f>1/SUM(F22:F30)</f>
+        <v>34334.635907869051</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="10">
+        <v>1.0200000000000001E-2</v>
+      </c>
+      <c r="D23" s="14">
+        <v>917.43</v>
+      </c>
+      <c r="E23" s="13">
+        <f t="shared" si="7"/>
+        <v>89944.117647058811</v>
+      </c>
+      <c r="F23" s="12">
+        <f t="shared" si="8"/>
+        <v>1.1118014453418791E-5</v>
+      </c>
+      <c r="G23" s="14">
+        <v>6610.41</v>
+      </c>
+      <c r="H23" s="15">
+        <f t="shared" si="9"/>
+        <v>67.426181999999997</v>
+      </c>
+      <c r="I23" s="3">
+        <f>H23/$J$4</f>
+        <v>0.14009829419058037</v>
+      </c>
+      <c r="J23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="10">
+        <v>2.2499999999999999E-2</v>
+      </c>
+      <c r="D24" s="14">
+        <v>4132.2299999999996</v>
+      </c>
+      <c r="E24" s="13">
+        <f t="shared" si="7"/>
+        <v>183654.66666666666</v>
+      </c>
+      <c r="F24" s="12">
+        <f t="shared" si="8"/>
+        <v>5.4450018513006294E-6</v>
+      </c>
+      <c r="G24" s="14">
+        <v>2986.65</v>
+      </c>
+      <c r="H24" s="15">
+        <f t="shared" si="9"/>
+        <v>67.199624999999997</v>
+      </c>
+      <c r="I24" s="3">
+        <f>H24/$J$4</f>
+        <v>0.13962755347391134</v>
+      </c>
+      <c r="J24" s="15">
+        <f>SUM(H22:H30)</f>
+        <v>460.64382400000005</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="10">
+        <v>5.5500000000000001E-2</v>
+      </c>
+      <c r="D25" s="14">
+        <v>25000</v>
+      </c>
+      <c r="E25" s="13">
+        <f t="shared" si="7"/>
+        <v>450450.45045045047</v>
+      </c>
+      <c r="F25" s="12">
+        <f t="shared" si="8"/>
+        <v>2.2199999999999999E-6</v>
+      </c>
+      <c r="G25" s="14">
+        <v>1208.3900000000001</v>
+      </c>
+      <c r="H25" s="15">
+        <f t="shared" si="9"/>
+        <v>67.065645000000004</v>
+      </c>
+      <c r="I25" s="3">
+        <f>H25/$J$4</f>
+        <v>0.13934916948569068</v>
+      </c>
+      <c r="J25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="10">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="D26" s="14">
+        <v>250000</v>
+      </c>
+      <c r="E26" s="13">
+        <f t="shared" si="7"/>
+        <v>1851851.8518518517</v>
+      </c>
+      <c r="F26" s="12">
+        <f t="shared" si="8"/>
+        <v>5.4000000000000002E-7</v>
+      </c>
+      <c r="G26" s="14">
+        <v>460.23</v>
+      </c>
+      <c r="H26" s="15">
+        <f t="shared" si="9"/>
+        <v>62.131050000000009</v>
+      </c>
+      <c r="I26" s="3">
+        <f>H26/$J$4</f>
+        <v>0.12909605531675603</v>
+      </c>
+      <c r="J26">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="10">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="D27" s="14">
+        <v>500000</v>
+      </c>
+      <c r="E27" s="13">
+        <f t="shared" si="7"/>
+        <v>2222222.222222222</v>
+      </c>
+      <c r="F27" s="12">
+        <f t="shared" si="8"/>
+        <v>4.5000000000000003E-7</v>
+      </c>
+      <c r="G27" s="14">
+        <v>277.39999999999998</v>
+      </c>
+      <c r="H27" s="15">
+        <f t="shared" si="9"/>
+        <v>62.414999999999999</v>
+      </c>
+      <c r="I27" s="3">
+        <f>H27/$J$4</f>
+        <v>0.12968604735627881</v>
+      </c>
+      <c r="J27" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="10">
+        <v>0.38700000000000001</v>
+      </c>
+      <c r="D28">
+        <f>10*1000*1000*1000</f>
+        <v>10000000000</v>
+      </c>
+      <c r="E28" s="13">
+        <f t="shared" si="7"/>
+        <v>25839793281.653748</v>
+      </c>
+      <c r="F28" s="12">
+        <f t="shared" si="8"/>
+        <v>3.8699999999999999E-11</v>
+      </c>
+      <c r="G28" s="14">
+        <v>224.23</v>
+      </c>
+      <c r="H28" s="15">
+        <f t="shared" si="9"/>
+        <v>86.777010000000004</v>
+      </c>
+      <c r="I28" s="3">
+        <f>H28/$J$4</f>
+        <v>0.18030549432502252</v>
+      </c>
+      <c r="J28" s="2">
+        <f>J24/J26</f>
+        <v>0.92128764800000007</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="10">
+        <v>0.129</v>
+      </c>
+      <c r="D29">
+        <f>10*1000*1000*1000</f>
+        <v>10000000000</v>
+      </c>
+      <c r="E29" s="13">
+        <f t="shared" si="7"/>
+        <v>77519379844.961243</v>
+      </c>
+      <c r="F29" s="12">
+        <f t="shared" si="8"/>
+        <v>1.29E-11</v>
+      </c>
+      <c r="G29" s="14">
+        <v>202.51</v>
+      </c>
+      <c r="H29" s="15">
+        <f t="shared" si="9"/>
+        <v>26.12379</v>
+      </c>
+      <c r="I29" s="3">
+        <f>H29/$J$4</f>
+        <v>5.4280077979099298E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" s="10">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="D30">
+        <f>10*1000*1000*1000</f>
+        <v>10000000000</v>
+      </c>
+      <c r="E30" s="13">
+        <f t="shared" si="7"/>
+        <v>303030303030.30304</v>
+      </c>
+      <c r="F30" s="12">
+        <f t="shared" si="8"/>
+        <v>3.3000000000000001E-12</v>
+      </c>
+      <c r="G30" s="14">
+        <v>156.55000000000001</v>
+      </c>
+      <c r="H30" s="15">
+        <f t="shared" si="9"/>
+        <v>5.1661500000000009</v>
+      </c>
+      <c r="I30" s="3">
+        <f>H30/$J$4</f>
+        <v>1.0734239742844506E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J31" t="s">
+        <v>37</v>
+      </c>
+      <c r="K31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>87</v>
+      </c>
+      <c r="B32" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" s="10">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="D32" s="14">
+        <v>299.39999999999998</v>
+      </c>
+      <c r="E32" s="13">
+        <f t="shared" ref="E32:E40" si="10">D32/C32</f>
+        <v>119759.99999999999</v>
+      </c>
+      <c r="F32" s="12">
+        <f t="shared" ref="F32:F40" si="11">1/E32</f>
+        <v>8.3500334001336022E-6</v>
+      </c>
+      <c r="G32" s="14">
+        <v>5835.49</v>
+      </c>
+      <c r="H32" s="15">
+        <f t="shared" ref="H32:H40" si="12">C32*G32</f>
+        <v>14.588725</v>
+      </c>
+      <c r="I32" s="3">
+        <f>H32/$J$4</f>
+        <v>3.0312490286272989E-2</v>
+      </c>
+      <c r="J32" s="16">
+        <f>SUM(C32:C40)</f>
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <f>1/SUM(F32:F40)</f>
+        <v>37842.796788456544</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" s="10">
+        <v>9.4999999999999998E-3</v>
+      </c>
+      <c r="D33" s="14">
+        <v>917.43</v>
+      </c>
+      <c r="E33" s="13">
+        <f t="shared" si="10"/>
+        <v>96571.578947368413</v>
+      </c>
+      <c r="F33" s="12">
+        <f t="shared" si="11"/>
+        <v>1.0355013461517501E-5</v>
+      </c>
+      <c r="G33" s="14">
+        <v>6610.41</v>
+      </c>
+      <c r="H33" s="15">
+        <f t="shared" si="12"/>
+        <v>62.798894999999995</v>
+      </c>
+      <c r="I33" s="3">
+        <f>H33/$J$4</f>
+        <v>0.13048370537357973</v>
+      </c>
+      <c r="J33" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="D34" s="14">
+        <v>4132.2299999999996</v>
+      </c>
+      <c r="E34" s="13">
+        <f t="shared" si="10"/>
+        <v>206611.49999999997</v>
+      </c>
+      <c r="F34" s="12">
+        <f t="shared" si="11"/>
+        <v>4.8400016456005601E-6</v>
+      </c>
+      <c r="G34" s="14">
+        <v>2986.65</v>
+      </c>
+      <c r="H34" s="15">
+        <f t="shared" si="12"/>
+        <v>59.733000000000004</v>
+      </c>
+      <c r="I34" s="3">
+        <f>H34/$J$4</f>
+        <v>0.12411338086569899</v>
+      </c>
+      <c r="J34" s="15">
+        <f>SUM(H32:H40)</f>
+        <v>436.35603999999995</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="D35" s="14">
+        <v>25000</v>
+      </c>
+      <c r="E35" s="13">
+        <f t="shared" si="10"/>
+        <v>500000</v>
+      </c>
+      <c r="F35" s="12">
+        <f t="shared" si="11"/>
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="G35" s="14">
+        <v>1208.3900000000001</v>
+      </c>
+      <c r="H35" s="15">
+        <f t="shared" si="12"/>
+        <v>60.419500000000006</v>
+      </c>
+      <c r="I35" s="3">
+        <f>H35/$J$4</f>
+        <v>0.12553979232945106</v>
+      </c>
+      <c r="J35" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>28</v>
+      </c>
+      <c r="C36" s="10">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="D36" s="14">
+        <v>250000</v>
+      </c>
+      <c r="E36" s="13">
+        <f t="shared" si="10"/>
+        <v>2100840.3361344538</v>
+      </c>
+      <c r="F36" s="12">
+        <f t="shared" si="11"/>
+        <v>4.7600000000000003E-7</v>
+      </c>
+      <c r="G36" s="14">
+        <v>460.23</v>
+      </c>
+      <c r="H36" s="15">
+        <f t="shared" si="12"/>
+        <v>54.76737</v>
+      </c>
+      <c r="I36" s="3">
+        <f>H36/$J$4</f>
+        <v>0.11379578209402937</v>
+      </c>
+      <c r="J36">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>29</v>
+      </c>
+      <c r="C37" s="10">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="D37" s="14">
+        <v>500000</v>
+      </c>
+      <c r="E37" s="13">
+        <f t="shared" si="10"/>
+        <v>2475247.5247524753</v>
+      </c>
+      <c r="F37" s="12">
+        <f t="shared" si="11"/>
+        <v>4.0399999999999996E-7</v>
+      </c>
+      <c r="G37" s="14">
+        <v>277.39999999999998</v>
+      </c>
+      <c r="H37" s="15">
+        <f t="shared" si="12"/>
+        <v>56.034799999999997</v>
+      </c>
+      <c r="I37" s="3">
+        <f>H37/$J$4</f>
+        <v>0.11642925140430363</v>
+      </c>
+      <c r="J37" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>30</v>
+      </c>
+      <c r="C38" s="10">
+        <v>0.40799999999999997</v>
+      </c>
+      <c r="D38">
+        <f>10*1000*1000*1000</f>
+        <v>10000000000</v>
+      </c>
+      <c r="E38" s="13">
+        <f t="shared" si="10"/>
+        <v>24509803921.56863</v>
+      </c>
+      <c r="F38" s="12">
+        <f t="shared" si="11"/>
+        <v>4.0799999999999997E-11</v>
+      </c>
+      <c r="G38" s="14">
+        <v>224.23</v>
+      </c>
+      <c r="H38" s="15">
+        <f t="shared" si="12"/>
+        <v>91.485839999999996</v>
+      </c>
+      <c r="I38" s="3">
+        <f>H38/$J$4</f>
+        <v>0.19008951339692293</v>
+      </c>
+      <c r="J38" s="2">
+        <f>J34/J36</f>
+        <v>0.87271207999999989</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>31</v>
+      </c>
+      <c r="C39" s="10">
+        <v>0.151</v>
+      </c>
+      <c r="D39">
+        <f>10*1000*1000*1000</f>
+        <v>10000000000</v>
+      </c>
+      <c r="E39" s="13">
+        <f t="shared" si="10"/>
+        <v>66225165562.91391</v>
+      </c>
+      <c r="F39" s="12">
+        <f t="shared" si="11"/>
+        <v>1.5099999999999998E-11</v>
+      </c>
+      <c r="G39" s="14">
+        <v>202.51</v>
+      </c>
+      <c r="H39" s="15">
+        <f t="shared" si="12"/>
+        <v>30.579009999999997</v>
+      </c>
+      <c r="I39" s="3">
+        <f>H39/$J$4</f>
+        <v>6.3537145541426296E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>32</v>
+      </c>
+      <c r="C40" s="10">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="D40">
+        <f>10*1000*1000*1000</f>
+        <v>10000000000</v>
+      </c>
+      <c r="E40" s="13">
+        <f t="shared" si="10"/>
+        <v>263157894736.8421</v>
+      </c>
+      <c r="F40" s="12">
+        <f t="shared" si="11"/>
+        <v>3.8E-12</v>
+      </c>
+      <c r="G40" s="14">
+        <v>156.55000000000001</v>
+      </c>
+      <c r="H40" s="15">
+        <f t="shared" si="12"/>
+        <v>5.9489000000000001</v>
+      </c>
+      <c r="I40" s="3">
+        <f>H40/$J$4</f>
+        <v>1.236063970388155E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="I1:I1048576 J1:K1">
+    <cfRule type="dataBar" priority="9">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{BD8FB0B1-2754-4811-A1C2-191089641852}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J11">
+    <cfRule type="dataBar" priority="8">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{847B2E31-0AE3-4A67-AA95-598910B90882}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J21">
+    <cfRule type="dataBar" priority="7">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{778EF204-F4E5-4491-BB73-C5E9C9C4F62D}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{E4CBCD81-E754-4F87-98C0-E3012DB8901C}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K11">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{CFA15B8D-126D-4509-AE37-426A004D0D24}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K21">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{82A1220E-2AFE-4E2D-B599-58F7714DFC9E}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J31:K31">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{6EDFADC1-3F73-47C6-8E4F-4F58AA31007D}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{BD8FB0B1-2754-4811-A1C2-191089641852}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>I1:I1048576 J1:K1</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{847B2E31-0AE3-4A67-AA95-598910B90882}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>J11</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{778EF204-F4E5-4491-BB73-C5E9C9C4F62D}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>J21</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{E4CBCD81-E754-4F87-98C0-E3012DB8901C}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFFB628"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C1:C1048576</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{CFA15B8D-126D-4509-AE37-426A004D0D24}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>K11</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{82A1220E-2AFE-4E2D-B599-58F7714DFC9E}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>K21</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{6EDFADC1-3F73-47C6-8E4F-4F58AA31007D}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>J31:K31</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AACD69C7-0B91-4FA6-B560-29FF47C4C8FC}">
+  <dimension ref="A1:N20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" customWidth="1"/>
+    <col min="7" max="7" width="9.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>10000</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3">
+        <f>B2/10000000</f>
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>100</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3">
+        <f>E2/10000000</f>
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <f>B15+E8</f>
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>5000</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3">
+        <f t="shared" ref="C3:C15" si="0">B3/10000000</f>
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>20</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3">
+        <f t="shared" ref="F3:F8" si="1">E3/10000000</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2500</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4" s="3">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999995E-7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1000</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>3990</v>
+      </c>
+      <c r="F5" s="3">
+        <f t="shared" si="1"/>
+        <v>3.9899999999999999E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>500</v>
+      </c>
+      <c r="B6">
+        <v>1500</v>
+      </c>
+      <c r="C6" s="3">
+        <f t="shared" si="0"/>
+        <v>1.4999999999999999E-4</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>19000</v>
+      </c>
+      <c r="F6" s="3">
+        <f t="shared" si="1"/>
+        <v>1.9E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>250</v>
+      </c>
+      <c r="B7">
+        <v>23500</v>
+      </c>
+      <c r="C7" s="3">
+        <f t="shared" si="0"/>
+        <v>2.3500000000000001E-3</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>57000</v>
+      </c>
+      <c r="F7" s="3">
+        <f t="shared" si="1"/>
+        <v>5.7000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>100</v>
+      </c>
+      <c r="B8">
+        <v>43000</v>
+      </c>
+      <c r="C8" s="3">
+        <f t="shared" si="0"/>
+        <v>4.3E-3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8">
+        <f>SUM(E2:E7)</f>
+        <v>80000</v>
+      </c>
+      <c r="F8" s="3">
+        <f t="shared" si="1"/>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="I8" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" s="2"/>
+      <c r="N8" s="8">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>50</v>
+      </c>
+      <c r="B9">
+        <v>80000</v>
+      </c>
+      <c r="C9" s="3">
+        <f t="shared" si="0"/>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6">
+        <f>SUMPRODUCT(D2:D7, E2:E7)/SUM(E2:E7)</f>
+        <v>2.3881250000000001</v>
+      </c>
+      <c r="I9" t="s">
+        <v>3</v>
+      </c>
+      <c r="K9" s="2"/>
+      <c r="N9" s="3">
+        <v>0.67500000000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>25</v>
+      </c>
+      <c r="B10">
+        <v>160000</v>
+      </c>
+      <c r="C10" s="3">
+        <f t="shared" si="0"/>
+        <v>1.6E-2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="2"/>
+      <c r="N10" s="3">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>500000</v>
+      </c>
+      <c r="C11" s="3">
+        <f t="shared" si="0"/>
+        <v>0.05</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>1302000</v>
+      </c>
+      <c r="C12" s="3">
+        <f t="shared" si="0"/>
+        <v>0.13020000000000001</v>
+      </c>
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>3050000</v>
+      </c>
+      <c r="C13" s="3">
+        <f t="shared" si="0"/>
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" s="9">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>4760000</v>
+      </c>
+      <c r="C14" s="3">
+        <f t="shared" si="0"/>
+        <v>0.47599999999999998</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" s="9">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15">
+        <f>SUM(B2:B14)</f>
+        <v>9920000</v>
+      </c>
+      <c r="C15" s="3">
+        <f t="shared" si="0"/>
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15" s="9">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="7">
+        <f>SUMPRODUCT(A2:A14, B2:B14)/SUM(B2:B14)</f>
+        <v>4.162802419354839</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16" s="9">
+        <v>1.5E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D17">
+        <v>4</v>
+      </c>
+      <c r="E17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D18">
+        <v>5</v>
+      </c>
+      <c r="E18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D19">
+        <v>6</v>
+      </c>
+      <c r="E19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1454,17 +4043,17 @@
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="9.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5" customWidth="1"/>
     <col min="7" max="7" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -1487,7 +4076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>10000</v>
       </c>
@@ -1513,7 +4102,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>5000</v>
       </c>
@@ -1535,7 +4124,7 @@
         <v>2.7599999999999999E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2500</v>
       </c>
@@ -1557,7 +4146,7 @@
         <v>3.2399999999999998E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1000</v>
       </c>
@@ -1579,7 +4168,7 @@
         <v>1.2292000000000001E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>500</v>
       </c>
@@ -1601,7 +4190,7 @@
         <v>1.9411999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>250</v>
       </c>
@@ -1623,7 +4212,7 @@
         <v>2.7699999999999999E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15" thickBot="1">
+    <row r="8" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>100</v>
       </c>
@@ -1650,10 +4239,10 @@
       </c>
       <c r="K8" s="2"/>
       <c r="N8" s="8">
-        <v>1.5E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="15" thickBot="1">
+        <v>1.6999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>50</v>
       </c>
@@ -1677,10 +4266,10 @@
       </c>
       <c r="K9" s="2"/>
       <c r="N9" s="3">
-        <v>0.77500000000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>25</v>
       </c>
@@ -1705,7 +4294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1724,7 +4313,7 @@
       </c>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>5</v>
       </c>
@@ -1742,7 +4331,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2</v>
       </c>
@@ -1760,7 +4349,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1</v>
       </c>
@@ -1779,7 +4368,7 @@
       </c>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:14" ht="15" thickBot="1">
+    <row r="15" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -1798,7 +4387,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="15" thickBot="1">
+    <row r="16" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>6</v>
       </c>
@@ -1814,7 +4403,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="17" spans="4:5">
+    <row r="17" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D17">
         <v>4</v>
       </c>
@@ -1822,7 +4411,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="18" spans="4:5">
+    <row r="18" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D18">
         <v>5</v>
       </c>
@@ -1830,7 +4419,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="19" spans="4:5">
+    <row r="19" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D19">
         <v>6</v>
       </c>
@@ -1838,7 +4427,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="20" spans="4:5">
+    <row r="20" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D20" t="s">
         <v>17</v>
       </c>
@@ -1860,17 +4449,17 @@
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="9.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5" customWidth="1"/>
     <col min="7" max="7" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -1893,7 +4482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>10000</v>
       </c>
@@ -1919,7 +4508,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>5000</v>
       </c>
@@ -1941,7 +4530,7 @@
         <v>1.8499999999999999E-5</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2500</v>
       </c>
@@ -1963,7 +4552,7 @@
         <v>1.5899999999999999E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1000</v>
       </c>
@@ -1985,7 +4574,7 @@
         <v>1.225E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>500</v>
       </c>
@@ -2007,7 +4596,7 @@
         <v>4.3249999999999999E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>250</v>
       </c>
@@ -2029,7 +4618,7 @@
         <v>1.7500000000000002E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15" thickBot="1">
+    <row r="8" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>100</v>
       </c>
@@ -2059,7 +4648,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15" thickBot="1">
+    <row r="9" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>50</v>
       </c>
@@ -2086,7 +4675,7 @@
         <v>0.36599999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>25</v>
       </c>
@@ -2111,7 +4700,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2130,7 +4719,7 @@
       </c>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>5</v>
       </c>
@@ -2148,7 +4737,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2</v>
       </c>
@@ -2166,7 +4755,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1</v>
       </c>
@@ -2185,7 +4774,7 @@
       </c>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:14" ht="15" thickBot="1">
+    <row r="15" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -2204,7 +4793,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="15" thickBot="1">
+    <row r="16" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>6</v>
       </c>
@@ -2220,7 +4809,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="17" spans="4:5">
+    <row r="17" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D17">
         <v>4</v>
       </c>
@@ -2228,7 +4817,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="18" spans="4:5">
+    <row r="18" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D18">
         <v>5</v>
       </c>
@@ -2236,7 +4825,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="19" spans="4:5">
+    <row r="19" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D19">
         <v>6</v>
       </c>
@@ -2244,7 +4833,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="20" spans="4:5">
+    <row r="20" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D20" t="s">
         <v>17</v>
       </c>
@@ -2265,18 +4854,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28479E39-C0E6-4809-B2B0-1A4BA38BE015}">
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="9.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5" customWidth="1"/>
     <col min="7" max="7" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -2299,7 +4888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>10000</v>
       </c>
@@ -2325,7 +4914,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>5000</v>
       </c>
@@ -2347,7 +4936,7 @@
         <v>1.8E-5</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2500</v>
       </c>
@@ -2369,7 +4958,7 @@
         <v>1.5449999999999999E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1000</v>
       </c>
@@ -2391,7 +4980,7 @@
         <v>1.126E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>500</v>
       </c>
@@ -2413,7 +5002,7 @@
         <v>4.1999999999999997E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>250</v>
       </c>
@@ -2435,7 +5024,7 @@
         <v>1.6500000000000001E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15" thickBot="1">
+    <row r="8" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>100</v>
       </c>
@@ -2465,7 +5054,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15" thickBot="1">
+    <row r="9" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>50</v>
       </c>
@@ -2492,7 +5081,7 @@
         <v>0.41499999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>25</v>
       </c>
@@ -2517,7 +5106,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2536,7 +5125,7 @@
       </c>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>5</v>
       </c>
@@ -2554,7 +5143,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2</v>
       </c>
@@ -2572,7 +5161,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1</v>
       </c>
@@ -2591,7 +5180,7 @@
       </c>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:14" ht="15" thickBot="1">
+    <row r="15" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -2610,7 +5199,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="15" thickBot="1">
+    <row r="16" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>6</v>
       </c>
@@ -2626,7 +5215,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="17" spans="4:5">
+    <row r="17" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D17">
         <v>4</v>
       </c>
@@ -2634,7 +5223,7 @@
         <v>1.7500000000000002E-2</v>
       </c>
     </row>
-    <row r="18" spans="4:5">
+    <row r="18" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D18">
         <v>5</v>
       </c>
@@ -2642,7 +5231,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="19" spans="4:5">
+    <row r="19" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D19">
         <v>6</v>
       </c>
@@ -2650,7 +5239,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="20" spans="4:5">
+    <row r="20" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D20" t="s">
         <v>17</v>
       </c>
@@ -2671,18 +5260,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AAD375E-8EDE-4ED3-8BB6-E5C5E84F8631}">
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="9.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5" customWidth="1"/>
     <col min="7" max="7" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -2705,7 +5294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>10000</v>
       </c>
@@ -2731,7 +5320,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>5000</v>
       </c>
@@ -2753,7 +5342,7 @@
         <v>1.8E-5</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2500</v>
       </c>
@@ -2775,7 +5364,7 @@
         <v>1.5449999999999999E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1000</v>
       </c>
@@ -2797,7 +5386,7 @@
         <v>9.2599999999999996E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>500</v>
       </c>
@@ -2819,7 +5408,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>250</v>
       </c>
@@ -2841,7 +5430,7 @@
         <v>1.49E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15" thickBot="1">
+    <row r="8" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>100</v>
       </c>
@@ -2871,7 +5460,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15" thickBot="1">
+    <row r="9" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>50</v>
       </c>
@@ -2898,7 +5487,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>25</v>
       </c>
@@ -2923,7 +5512,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2942,7 +5531,7 @@
       </c>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>5</v>
       </c>
@@ -2960,7 +5549,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2</v>
       </c>
@@ -2978,7 +5567,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1</v>
       </c>
@@ -2997,7 +5586,7 @@
       </c>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:14" ht="15" thickBot="1">
+    <row r="15" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -3016,7 +5605,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="15" thickBot="1">
+    <row r="16" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>6</v>
       </c>
@@ -3032,7 +5621,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="17" spans="4:5">
+    <row r="17" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D17">
         <v>4</v>
       </c>
@@ -3040,7 +5629,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="18" spans="4:5">
+    <row r="18" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D18">
         <v>5</v>
       </c>
@@ -3048,7 +5637,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="19" spans="4:5">
+    <row r="19" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D19">
         <v>6</v>
       </c>
@@ -3056,7 +5645,7 @@
         <v>7.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="20" spans="4:5">
+    <row r="20" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D20" t="s">
         <v>17</v>
       </c>
@@ -3078,17 +5667,17 @@
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="9.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5" customWidth="1"/>
     <col min="7" max="7" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -3111,7 +5700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>10000</v>
       </c>
@@ -3137,7 +5726,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>5000</v>
       </c>
@@ -3159,7 +5748,7 @@
         <v>1.59E-5</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2500</v>
       </c>
@@ -3181,7 +5770,7 @@
         <v>1.22E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1000</v>
       </c>
@@ -3203,7 +5792,7 @@
         <v>9.1100000000000003E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>500</v>
       </c>
@@ -3225,7 +5814,7 @@
         <v>3.8999999999999998E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>250</v>
       </c>
@@ -3247,7 +5836,7 @@
         <v>1.205E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15" thickBot="1">
+    <row r="8" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>100</v>
       </c>
@@ -3277,7 +5866,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15" thickBot="1">
+    <row r="9" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>50</v>
       </c>
@@ -3304,7 +5893,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>25</v>
       </c>
@@ -3329,7 +5918,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3348,7 +5937,7 @@
       </c>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>5</v>
       </c>
@@ -3366,7 +5955,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2</v>
       </c>
@@ -3384,7 +5973,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1</v>
       </c>
@@ -3403,7 +5992,7 @@
       </c>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:14" ht="15" thickBot="1">
+    <row r="15" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -3422,7 +6011,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="15" thickBot="1">
+    <row r="16" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>6</v>
       </c>
@@ -3438,7 +6027,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="17" spans="4:5">
+    <row r="17" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D17">
         <v>4</v>
       </c>
@@ -3446,7 +6035,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="18" spans="4:5">
+    <row r="18" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D18">
         <v>5</v>
       </c>
@@ -3454,7 +6043,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="19" spans="4:5">
+    <row r="19" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D19">
         <v>6</v>
       </c>
@@ -3462,7 +6051,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="20" spans="4:5">
+    <row r="20" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D20" t="s">
         <v>17</v>
       </c>
@@ -3477,4 +6066,1221 @@
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B59E963-CE31-4015-B911-08EADC4B63DF}">
+  <dimension ref="A1:N20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" customWidth="1"/>
+    <col min="7" max="7" width="9.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>10000</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3">
+        <f>B2/10000000</f>
+        <v>2.9999999999999999E-7</v>
+      </c>
+      <c r="D2">
+        <v>100</v>
+      </c>
+      <c r="E2">
+        <v>6</v>
+      </c>
+      <c r="F2" s="3">
+        <f>E2/10000000</f>
+        <v>5.9999999999999997E-7</v>
+      </c>
+      <c r="H2">
+        <f>B15+E8</f>
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>5000</v>
+      </c>
+      <c r="B3">
+        <v>47</v>
+      </c>
+      <c r="C3" s="3">
+        <f t="shared" ref="C3:C15" si="0">B3/10000000</f>
+        <v>4.6999999999999999E-6</v>
+      </c>
+      <c r="D3">
+        <v>20</v>
+      </c>
+      <c r="E3">
+        <v>114</v>
+      </c>
+      <c r="F3" s="3">
+        <f t="shared" ref="F3:F8" si="1">E3/10000000</f>
+        <v>1.1399999999999999E-5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2500</v>
+      </c>
+      <c r="B4">
+        <v>160</v>
+      </c>
+      <c r="C4" s="3">
+        <f t="shared" si="0"/>
+        <v>1.5999999999999999E-5</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>880</v>
+      </c>
+      <c r="F4" s="3">
+        <f t="shared" si="1"/>
+        <v>8.7999999999999998E-5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1000</v>
+      </c>
+      <c r="B5">
+        <v>1390</v>
+      </c>
+      <c r="C5" s="3">
+        <f t="shared" si="0"/>
+        <v>1.3899999999999999E-4</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>7000</v>
+      </c>
+      <c r="F5" s="3">
+        <f t="shared" si="1"/>
+        <v>6.9999999999999999E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>500</v>
+      </c>
+      <c r="B6">
+        <v>7400</v>
+      </c>
+      <c r="C6" s="3">
+        <f t="shared" si="0"/>
+        <v>7.3999999999999999E-4</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>32000</v>
+      </c>
+      <c r="F6" s="3">
+        <f t="shared" si="1"/>
+        <v>3.2000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>250</v>
+      </c>
+      <c r="B7">
+        <v>26000</v>
+      </c>
+      <c r="C7" s="3">
+        <f t="shared" si="0"/>
+        <v>2.5999999999999999E-3</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>110000</v>
+      </c>
+      <c r="F7" s="3">
+        <f t="shared" si="1"/>
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>100</v>
+      </c>
+      <c r="B8">
+        <v>54000</v>
+      </c>
+      <c r="C8" s="3">
+        <f t="shared" si="0"/>
+        <v>5.4000000000000003E-3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8">
+        <f>SUM(E2:E7)</f>
+        <v>150000</v>
+      </c>
+      <c r="F8" s="3">
+        <f t="shared" si="1"/>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="I8" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" s="2"/>
+      <c r="N8" s="8">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>50</v>
+      </c>
+      <c r="B9">
+        <v>122000</v>
+      </c>
+      <c r="C9" s="3">
+        <f t="shared" si="0"/>
+        <v>1.2200000000000001E-2</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6">
+        <f>SUMPRODUCT(D2:D7, E2:E7)/SUM(E2:E7)</f>
+        <v>2.4178666666666668</v>
+      </c>
+      <c r="I9" t="s">
+        <v>3</v>
+      </c>
+      <c r="K9" s="2"/>
+      <c r="N9" s="3">
+        <v>0.67500000000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>25</v>
+      </c>
+      <c r="B10">
+        <v>214000</v>
+      </c>
+      <c r="C10" s="3">
+        <f t="shared" si="0"/>
+        <v>2.1399999999999999E-2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="2"/>
+      <c r="N10" s="3">
+        <v>1.5E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>500000</v>
+      </c>
+      <c r="C11" s="3">
+        <f t="shared" si="0"/>
+        <v>0.05</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>1425000</v>
+      </c>
+      <c r="C12" s="3">
+        <f t="shared" si="0"/>
+        <v>0.14249999999999999</v>
+      </c>
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>2825000</v>
+      </c>
+      <c r="C13" s="3">
+        <f t="shared" si="0"/>
+        <v>0.28249999999999997</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" s="9">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>4675000</v>
+      </c>
+      <c r="C14" s="3">
+        <f t="shared" si="0"/>
+        <v>0.46750000000000003</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" s="9">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15">
+        <f>SUM(B2:B14)</f>
+        <v>9850000</v>
+      </c>
+      <c r="C15" s="3">
+        <f t="shared" si="0"/>
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15" s="9">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="7">
+        <f>SUMPRODUCT(A2:A14, B2:B14)/SUM(B2:B14)</f>
+        <v>5.2340101522842639</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16" s="9">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D17">
+        <v>4</v>
+      </c>
+      <c r="E17" s="9">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D18">
+        <v>5</v>
+      </c>
+      <c r="E18" s="9">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D19">
+        <v>6</v>
+      </c>
+      <c r="E19" s="9">
+        <v>5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD5EAB59-1B12-4F1D-99F9-90DA810EA13F}">
+  <dimension ref="A1:N20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" customWidth="1"/>
+    <col min="7" max="7" width="9.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>10000</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3">
+        <f>B2/10000000</f>
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>100</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3">
+        <f>E2/10000000</f>
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <f>B15+E8</f>
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>5000</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3" s="3">
+        <f t="shared" ref="C3:C15" si="0">B3/10000000</f>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D3">
+        <v>20</v>
+      </c>
+      <c r="E3">
+        <v>80</v>
+      </c>
+      <c r="F3" s="3">
+        <f t="shared" ref="F3:F8" si="1">E3/10000000</f>
+        <v>7.9999999999999996E-6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2500</v>
+      </c>
+      <c r="B4">
+        <v>110</v>
+      </c>
+      <c r="C4" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1E-5</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>720</v>
+      </c>
+      <c r="F4" s="3">
+        <f t="shared" si="1"/>
+        <v>7.2000000000000002E-5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1000</v>
+      </c>
+      <c r="B5">
+        <v>900</v>
+      </c>
+      <c r="C5" s="3">
+        <f t="shared" si="0"/>
+        <v>9.0000000000000006E-5</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>5200</v>
+      </c>
+      <c r="F5" s="3">
+        <f t="shared" si="1"/>
+        <v>5.1999999999999995E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>500</v>
+      </c>
+      <c r="B6">
+        <v>5480</v>
+      </c>
+      <c r="C6" s="3">
+        <f t="shared" si="0"/>
+        <v>5.4799999999999998E-4</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>26000</v>
+      </c>
+      <c r="F6" s="3">
+        <f t="shared" si="1"/>
+        <v>2.5999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>250</v>
+      </c>
+      <c r="B7">
+        <v>26000</v>
+      </c>
+      <c r="C7" s="3">
+        <f t="shared" si="0"/>
+        <v>2.5999999999999999E-3</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>98000</v>
+      </c>
+      <c r="F7" s="3">
+        <f t="shared" si="1"/>
+        <v>9.7999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>100</v>
+      </c>
+      <c r="B8">
+        <v>50000</v>
+      </c>
+      <c r="C8" s="3">
+        <f t="shared" si="0"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8">
+        <f>SUM(E2:E7)</f>
+        <v>130000</v>
+      </c>
+      <c r="F8" s="3">
+        <f t="shared" si="1"/>
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="I8" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" s="2"/>
+      <c r="N8" s="8">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>50</v>
+      </c>
+      <c r="B9">
+        <v>110000</v>
+      </c>
+      <c r="C9" s="3">
+        <f t="shared" si="0"/>
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6">
+        <f>SUMPRODUCT(D2:D7, E2:E7)/SUM(E2:E7)</f>
+        <v>2.3753846153846152</v>
+      </c>
+      <c r="I9" t="s">
+        <v>3</v>
+      </c>
+      <c r="K9" s="2"/>
+      <c r="N9" s="3">
+        <v>0.67500000000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>25</v>
+      </c>
+      <c r="B10">
+        <v>210000</v>
+      </c>
+      <c r="C10" s="3">
+        <f t="shared" si="0"/>
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="2"/>
+      <c r="N10" s="3">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>560000</v>
+      </c>
+      <c r="C11" s="3">
+        <f t="shared" si="0"/>
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>1407500</v>
+      </c>
+      <c r="C12" s="3">
+        <f t="shared" si="0"/>
+        <v>0.14074999999999999</v>
+      </c>
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>2800000</v>
+      </c>
+      <c r="C13" s="3">
+        <f t="shared" si="0"/>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" s="9">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>4700000</v>
+      </c>
+      <c r="C14" s="3">
+        <f t="shared" si="0"/>
+        <v>0.47</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" s="9">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15">
+        <f>SUM(B2:B14)</f>
+        <v>9870000</v>
+      </c>
+      <c r="C15" s="3">
+        <f t="shared" si="0"/>
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15" s="9">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="7">
+        <f>SUMPRODUCT(A2:A14, B2:B14)/SUM(B2:B14)</f>
+        <v>4.979989868287741</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16" s="9">
+        <v>4.4999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D17">
+        <v>4</v>
+      </c>
+      <c r="E17" s="9">
+        <v>1.5E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D18">
+        <v>5</v>
+      </c>
+      <c r="E18" s="9">
+        <v>5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D19">
+        <v>6</v>
+      </c>
+      <c r="E19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9F3E64E-141C-4FD7-A2FA-50296C52A2FE}">
+  <dimension ref="A1:N20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" customWidth="1"/>
+    <col min="7" max="7" width="9.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>10000</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3">
+        <f>B2/10000000</f>
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>100</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3">
+        <f>E2/10000000</f>
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <f>B15+E8</f>
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>5000</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3">
+        <f t="shared" ref="C3:C15" si="0">B3/10000000</f>
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>20</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3">
+        <f t="shared" ref="F3:F8" si="1">E3/10000000</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2500</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>350</v>
+      </c>
+      <c r="F4" s="3">
+        <f t="shared" si="1"/>
+        <v>3.4999999999999997E-5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1000</v>
+      </c>
+      <c r="B5">
+        <v>550</v>
+      </c>
+      <c r="C5" s="3">
+        <f t="shared" si="0"/>
+        <v>5.5000000000000002E-5</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>4650</v>
+      </c>
+      <c r="F5" s="3">
+        <f t="shared" si="1"/>
+        <v>4.6500000000000003E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>500</v>
+      </c>
+      <c r="B6">
+        <v>3450</v>
+      </c>
+      <c r="C6" s="3">
+        <f t="shared" si="0"/>
+        <v>3.4499999999999998E-4</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>24000</v>
+      </c>
+      <c r="F6" s="3">
+        <f t="shared" si="1"/>
+        <v>2.3999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>250</v>
+      </c>
+      <c r="B7">
+        <v>27000</v>
+      </c>
+      <c r="C7" s="3">
+        <f t="shared" si="0"/>
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>96000</v>
+      </c>
+      <c r="F7" s="3">
+        <f t="shared" si="1"/>
+        <v>9.5999999999999992E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>100</v>
+      </c>
+      <c r="B8">
+        <v>45500</v>
+      </c>
+      <c r="C8" s="3">
+        <f t="shared" si="0"/>
+        <v>4.5500000000000002E-3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8">
+        <f>SUM(E2:E7)</f>
+        <v>125000</v>
+      </c>
+      <c r="F8" s="3">
+        <f t="shared" si="1"/>
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="I8" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" s="2"/>
+      <c r="N8" s="8">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>50</v>
+      </c>
+      <c r="B9">
+        <v>91000</v>
+      </c>
+      <c r="C9" s="3">
+        <f t="shared" si="0"/>
+        <v>9.1000000000000004E-3</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6">
+        <f>SUMPRODUCT(D2:D7, E2:E7)/SUM(E2:E7)</f>
+        <v>2.3260000000000001</v>
+      </c>
+      <c r="I9" t="s">
+        <v>3</v>
+      </c>
+      <c r="K9" s="2"/>
+      <c r="N9" s="3">
+        <v>0.67500000000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>25</v>
+      </c>
+      <c r="B10">
+        <v>175000</v>
+      </c>
+      <c r="C10" s="3">
+        <f t="shared" si="0"/>
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="2"/>
+      <c r="N10" s="3">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>575000</v>
+      </c>
+      <c r="C11" s="3">
+        <f t="shared" si="0"/>
+        <v>5.7500000000000002E-2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>1407500</v>
+      </c>
+      <c r="C12" s="3">
+        <f t="shared" si="0"/>
+        <v>0.14074999999999999</v>
+      </c>
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>2850000</v>
+      </c>
+      <c r="C13" s="3">
+        <f t="shared" si="0"/>
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" s="9">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>4700000</v>
+      </c>
+      <c r="C14" s="3">
+        <f t="shared" si="0"/>
+        <v>0.47</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" s="9">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15">
+        <f>SUM(B2:B14)</f>
+        <v>9875000</v>
+      </c>
+      <c r="C15" s="3">
+        <f t="shared" si="0"/>
+        <v>0.98750000000000004</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15" s="9">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="7">
+        <f>SUMPRODUCT(A2:A14, B2:B14)/SUM(B2:B14)</f>
+        <v>4.6265822784810124</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16" s="9">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D17">
+        <v>4</v>
+      </c>
+      <c r="E17" s="9">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D18">
+        <v>5</v>
+      </c>
+      <c r="E18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D19">
+        <v>6</v>
+      </c>
+      <c r="E19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/MathB_Draft.xlsx
+++ b/MathB_Draft.xlsx
@@ -8,21 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nanhua\Documents\GitHub\CoinFlip\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB4506C0-D8B2-4642-AF8B-47D6B0F5A866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB261D07-84C0-4543-BA0D-D1B023ED4B81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="20" windowWidth="25580" windowHeight="15260" xr2:uid="{5469C1AF-BC43-4C41-9780-4FFCD086E37A}"/>
+    <workbookView xWindow="-2660" yWindow="1550" windowWidth="25580" windowHeight="15260" xr2:uid="{5469C1AF-BC43-4C41-9780-4FFCD086E37A}"/>
   </bookViews>
   <sheets>
-    <sheet name="overview" sheetId="3" r:id="rId1"/>
-    <sheet name="Special" sheetId="2" r:id="rId2"/>
-    <sheet name="AAA" sheetId="1" r:id="rId3"/>
-    <sheet name="AA" sheetId="4" r:id="rId4"/>
-    <sheet name="A" sheetId="5" r:id="rId5"/>
-    <sheet name="B" sheetId="6" r:id="rId6"/>
-    <sheet name="C" sheetId="7" r:id="rId7"/>
-    <sheet name="D" sheetId="8" r:id="rId8"/>
-    <sheet name="E" sheetId="9" r:id="rId9"/>
-    <sheet name="F" sheetId="10" r:id="rId10"/>
+    <sheet name="draft2" sheetId="3" r:id="rId1"/>
+    <sheet name="draft1" sheetId="11" r:id="rId2"/>
+    <sheet name="Special" sheetId="2" r:id="rId3"/>
+    <sheet name="AAA" sheetId="1" r:id="rId4"/>
+    <sheet name="AA" sheetId="4" r:id="rId5"/>
+    <sheet name="A" sheetId="5" r:id="rId6"/>
+    <sheet name="B" sheetId="6" r:id="rId7"/>
+    <sheet name="C" sheetId="7" r:id="rId8"/>
+    <sheet name="D" sheetId="8" r:id="rId9"/>
+    <sheet name="E" sheetId="9" r:id="rId10"/>
+    <sheet name="F" sheetId="10" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -67,6 +68,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>(Multiplies by 1 - this value)</t>
@@ -102,6 +104,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>(Multiplies by 1 - this value)</t>
@@ -137,6 +140,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>(Multiplies by 1 - this value)</t>
@@ -172,6 +176,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>(Multiplies by 1 - this value)</t>
@@ -207,6 +212,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>(Multiplies by 1 - this value)</t>
@@ -242,6 +248,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>(Multiplies by 1 - this value)</t>
@@ -277,6 +284,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>(Multiplies by 1 - this value)</t>
@@ -312,6 +320,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>(Multiplies by 1 - this value)</t>
@@ -347,6 +356,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>(Multiplies by 1 - this value)</t>
@@ -358,7 +368,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="42">
   <si>
     <t>Per 10M</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -567,6 +577,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -582,10 +593,11 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -601,6 +613,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -659,7 +677,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -709,6 +727,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2135,15 +2156,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF1BBB52-5D44-4CCD-9241-FD2ED7303C3D}">
-  <dimension ref="A1:K40"/>
+  <dimension ref="A1:K50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="B17" workbookViewId="0">
+      <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="20.83203125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="8.5" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.5" style="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.58203125" style="12" bestFit="1" customWidth="1"/>
@@ -2158,7 +2179,7 @@
       <c r="B1" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="17" t="s">
         <v>20</v>
       </c>
       <c r="D1" t="s">
@@ -2188,35 +2209,35 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="10">
-        <v>3.0000000000000001E-3</v>
+      <c r="C2" s="17">
+        <v>1E-3</v>
       </c>
       <c r="D2" s="14">
         <v>299.39999999999998</v>
       </c>
       <c r="E2" s="13">
-        <f t="shared" ref="E2:E7" si="0">D2/C2</f>
-        <v>99799.999999999985</v>
+        <f t="shared" ref="E2:E10" si="0">D2/C2</f>
+        <v>299400</v>
       </c>
       <c r="F2" s="12">
         <f t="shared" ref="F2:F10" si="1">1/E2</f>
-        <v>1.0020040080160322E-5</v>
+        <v>3.3400133600534401E-6</v>
       </c>
       <c r="G2" s="14">
         <v>5835.49</v>
       </c>
       <c r="H2" s="15">
         <f t="shared" ref="H2:H10" si="2">C2*G2</f>
-        <v>17.50647</v>
+        <v>5.8354900000000001</v>
       </c>
       <c r="I2" s="3">
-        <f>H2/$J$4</f>
-        <v>3.6374988343527585E-2</v>
+        <f t="shared" ref="I2:I10" si="3">H2/$J$14</f>
+        <v>1.2144157597260138E-2</v>
       </c>
       <c r="J2" s="16">
         <f>SUM(C2:C10)</f>
@@ -2224,37 +2245,37 @@
       </c>
       <c r="K2">
         <f>1/SUM(F2:F10)</f>
-        <v>31762.054518586843</v>
+        <v>56211.170602028913</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="10">
-        <v>1.0999999999999999E-2</v>
+      <c r="C3" s="17">
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="D3" s="14">
         <v>917.43</v>
       </c>
       <c r="E3" s="13">
         <f t="shared" si="0"/>
-        <v>83402.727272727279</v>
+        <v>229357.49999999997</v>
       </c>
       <c r="F3" s="12">
         <f t="shared" si="1"/>
-        <v>1.1990015587020263E-5</v>
+        <v>4.3600056680073688E-6</v>
       </c>
       <c r="G3" s="14">
         <v>6610.41</v>
       </c>
       <c r="H3" s="15">
         <f t="shared" si="2"/>
-        <v>72.71450999999999</v>
+        <v>26.44164</v>
       </c>
       <c r="I3" s="3">
-        <f>H3/$J$4</f>
-        <v>0.15108639569572391</v>
+        <f t="shared" si="3"/>
+        <v>5.5027331601976454E-2</v>
       </c>
       <c r="J3" t="s">
         <v>35</v>
@@ -2264,64 +2285,64 @@
       <c r="B4" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="10">
-        <v>2.5000000000000001E-2</v>
+      <c r="C4" s="17">
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="D4" s="14">
         <v>4132.2299999999996</v>
       </c>
       <c r="E4" s="13">
         <f t="shared" si="0"/>
-        <v>165289.19999999998</v>
+        <v>275482</v>
       </c>
       <c r="F4" s="12">
         <f t="shared" si="1"/>
-        <v>6.0500020570007003E-6</v>
+        <v>3.6300012342004194E-6</v>
       </c>
       <c r="G4" s="14">
         <v>2986.65</v>
       </c>
       <c r="H4" s="15">
         <f t="shared" si="2"/>
-        <v>74.666250000000005</v>
+        <v>44.799750000000003</v>
       </c>
       <c r="I4" s="3">
-        <f>H4/$J$4</f>
-        <v>0.15514172608212373</v>
+        <f t="shared" si="3"/>
+        <v>9.3232140628782656E-2</v>
       </c>
       <c r="J4" s="15">
         <f>SUM(H2:H10)</f>
-        <v>481.27768000000003</v>
+        <v>486.64848000000006</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="10">
-        <v>5.8999999999999997E-2</v>
+      <c r="C5" s="17">
+        <v>0.125</v>
       </c>
       <c r="D5" s="14">
         <v>25000</v>
       </c>
       <c r="E5" s="13">
         <f t="shared" si="0"/>
-        <v>423728.81355932204</v>
+        <v>200000</v>
       </c>
       <c r="F5" s="12">
         <f t="shared" si="1"/>
-        <v>2.3599999999999999E-6</v>
+        <v>5.0000000000000004E-6</v>
       </c>
       <c r="G5" s="14">
         <v>1208.3900000000001</v>
       </c>
       <c r="H5" s="15">
         <f t="shared" si="2"/>
-        <v>71.295010000000005</v>
+        <v>151.04875000000001</v>
       </c>
       <c r="I5" s="3">
-        <f>H5/$J$4</f>
-        <v>0.14813695494875226</v>
+        <f t="shared" si="3"/>
+        <v>0.31434546625375892</v>
       </c>
       <c r="J5" t="s">
         <v>38</v>
@@ -2331,30 +2352,30 @@
       <c r="B6" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="10">
-        <v>0.14699999999999999</v>
+      <c r="C6" s="17">
+        <v>0.255</v>
       </c>
       <c r="D6" s="14">
         <v>250000</v>
       </c>
       <c r="E6" s="13">
         <f t="shared" si="0"/>
-        <v>1700680.2721088436</v>
+        <v>980392.15686274506</v>
       </c>
       <c r="F6" s="12">
         <f t="shared" si="1"/>
-        <v>5.8800000000000002E-7</v>
+        <v>1.02E-6</v>
       </c>
       <c r="G6" s="14">
         <v>460.23</v>
       </c>
       <c r="H6" s="15">
         <f t="shared" si="2"/>
-        <v>67.653809999999993</v>
+        <v>117.35865000000001</v>
       </c>
       <c r="I6" s="3">
-        <f>H6/$J$4</f>
-        <v>0.14057126023380098</v>
+        <f t="shared" si="3"/>
+        <v>0.24423346471362195</v>
       </c>
       <c r="J6">
         <v>500</v>
@@ -2364,30 +2385,30 @@
       <c r="B7" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="10">
-        <v>0.23799999999999999</v>
+      <c r="C7" s="17">
+        <v>0.22</v>
       </c>
       <c r="D7" s="14">
         <v>500000</v>
       </c>
       <c r="E7" s="13">
         <f t="shared" si="0"/>
-        <v>2100840.3361344538</v>
+        <v>2272727.2727272729</v>
       </c>
       <c r="F7" s="12">
         <f t="shared" si="1"/>
-        <v>4.7600000000000003E-7</v>
+        <v>4.3999999999999997E-7</v>
       </c>
       <c r="G7" s="14">
         <v>277.39999999999998</v>
       </c>
       <c r="H7" s="15">
         <f t="shared" si="2"/>
-        <v>66.021199999999993</v>
+        <v>61.027999999999999</v>
       </c>
       <c r="I7" s="3">
-        <f>H7/$J$4</f>
-        <v>0.13717901898130824</v>
+        <f t="shared" si="3"/>
+        <v>0.12700452744252697</v>
       </c>
       <c r="J7" t="s">
         <v>39</v>
@@ -2397,73 +2418,73 @@
       <c r="B8" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="10">
-        <v>0.373</v>
+      <c r="C8" s="17">
+        <v>0.21</v>
       </c>
       <c r="D8">
         <f>10*1000*1000*1000</f>
         <v>10000000000</v>
       </c>
       <c r="E8" s="13">
-        <f t="shared" ref="E8:E10" si="3">D8/C8</f>
-        <v>26809651474.53083</v>
+        <f t="shared" si="0"/>
+        <v>47619047619.047623</v>
       </c>
       <c r="F8" s="12">
         <f t="shared" si="1"/>
-        <v>3.7300000000000003E-11</v>
+        <v>2.0999999999999999E-11</v>
       </c>
       <c r="G8" s="14">
         <v>224.23</v>
       </c>
       <c r="H8" s="15">
         <f t="shared" si="2"/>
-        <v>83.637789999999995</v>
+        <v>47.088299999999997</v>
       </c>
       <c r="I8" s="3">
-        <f>H8/$J$4</f>
-        <v>0.17378281494375553</v>
+        <f t="shared" si="3"/>
+        <v>9.7994810407877414E-2</v>
       </c>
       <c r="J8" s="2">
         <f>J4/J6</f>
-        <v>0.96255536000000008</v>
+        <v>0.9732969600000001</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="10">
-        <v>0.114</v>
+      <c r="C9" s="17">
+        <v>0.14000000000000001</v>
       </c>
       <c r="D9">
         <f>10*1000*1000*1000</f>
         <v>10000000000</v>
       </c>
       <c r="E9" s="13">
-        <f t="shared" si="3"/>
-        <v>87719298245.614029</v>
+        <f t="shared" si="0"/>
+        <v>71428571428.571426</v>
       </c>
       <c r="F9" s="12">
         <f t="shared" si="1"/>
-        <v>1.1400000000000001E-11</v>
+        <v>1.4E-11</v>
       </c>
       <c r="G9" s="14">
         <v>202.51</v>
       </c>
       <c r="H9" s="15">
         <f t="shared" si="2"/>
-        <v>23.08614</v>
+        <v>28.351400000000002</v>
       </c>
       <c r="I9" s="3">
-        <f>H9/$J$4</f>
-        <v>4.796844100478543E-2</v>
+        <f t="shared" si="3"/>
+        <v>5.900170674664186E-2</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="17">
         <v>0.03</v>
       </c>
       <c r="D10">
@@ -2471,7 +2492,7 @@
         <v>10000000000</v>
       </c>
       <c r="E10" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>333333333333.33337</v>
       </c>
       <c r="F10" s="12">
@@ -2486,8 +2507,8 @@
         <v>4.6965000000000003</v>
       </c>
       <c r="I10" s="3">
-        <f>H10/$J$4</f>
-        <v>9.7583997662222775E-3</v>
+        <f t="shared" si="3"/>
+        <v>9.7738212481783444E-3</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -2503,35 +2524,35 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="10">
-        <v>3.0000000000000001E-3</v>
+      <c r="C12" s="17">
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="D12" s="14">
         <v>299.39999999999998</v>
       </c>
       <c r="E12" s="13">
-        <f t="shared" ref="E12:E20" si="4">D12/C12</f>
-        <v>99799.999999999985</v>
+        <f t="shared" ref="E12:E17" si="4">D12/C12</f>
+        <v>332666.66666666663</v>
       </c>
       <c r="F12" s="12">
         <f t="shared" ref="F12:F20" si="5">1/E12</f>
-        <v>1.0020040080160322E-5</v>
+        <v>3.0060120240480967E-6</v>
       </c>
       <c r="G12" s="14">
         <v>5835.49</v>
       </c>
       <c r="H12" s="15">
         <f t="shared" ref="H12:H20" si="6">C12*G12</f>
-        <v>17.50647</v>
+        <v>5.2519409999999995</v>
       </c>
       <c r="I12" s="3">
-        <f>H12/$J$4</f>
-        <v>3.6374988343527585E-2</v>
+        <f t="shared" ref="I12:I20" si="7">H12/$J$14</f>
+        <v>1.0929741837534123E-2</v>
       </c>
       <c r="J12" s="16">
         <f>SUM(C12:C20)</f>
@@ -2539,37 +2560,37 @@
       </c>
       <c r="K12">
         <f>1/SUM(F12:F20)</f>
-        <v>32827.667549971957</v>
+        <v>58470.443109744774</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="10">
-        <v>1.0500000000000001E-2</v>
+      <c r="C13" s="17">
+        <v>3.8999999999999998E-3</v>
       </c>
       <c r="D13" s="14">
         <v>917.43</v>
       </c>
       <c r="E13" s="13">
         <f t="shared" si="4"/>
-        <v>87374.28571428571</v>
+        <v>235238.46153846153</v>
       </c>
       <c r="F13" s="12">
         <f t="shared" si="5"/>
-        <v>1.1445014878519342E-5</v>
+        <v>4.2510055263071845E-6</v>
       </c>
       <c r="G13" s="14">
         <v>6610.41</v>
       </c>
       <c r="H13" s="15">
         <f t="shared" si="6"/>
-        <v>69.409305000000003</v>
+        <v>25.780598999999999</v>
       </c>
       <c r="I13" s="3">
-        <f>H13/$J$4</f>
-        <v>0.1442188322550092</v>
+        <f t="shared" si="7"/>
+        <v>5.3651648311927036E-2</v>
       </c>
       <c r="J13" t="s">
         <v>35</v>
@@ -2579,64 +2600,64 @@
       <c r="B14" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="10">
-        <v>2.35E-2</v>
+      <c r="C14" s="17">
+        <v>1.4500000000000001E-2</v>
       </c>
       <c r="D14" s="14">
         <v>4132.2299999999996</v>
       </c>
       <c r="E14" s="13">
         <f t="shared" si="4"/>
-        <v>175839.57446808508</v>
+        <v>284981.37931034481</v>
       </c>
       <c r="F14" s="12">
         <f t="shared" si="5"/>
-        <v>5.6870019335806581E-6</v>
+        <v>3.5090011930604059E-6</v>
       </c>
       <c r="G14" s="14">
         <v>2986.65</v>
       </c>
       <c r="H14" s="15">
         <f t="shared" si="6"/>
-        <v>70.186275000000009</v>
+        <v>43.306425000000004</v>
       </c>
       <c r="I14" s="3">
-        <f>H14/$J$4</f>
-        <v>0.14583322251719633</v>
+        <f t="shared" si="7"/>
+        <v>9.0124402607823242E-2</v>
       </c>
       <c r="J14" s="15">
         <f>SUM(H12:H20)</f>
-        <v>470.52424000000002</v>
+        <v>480.51830300000006</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="10">
-        <v>5.6500000000000002E-2</v>
+      <c r="C15" s="17">
+        <v>0.1225</v>
       </c>
       <c r="D15" s="14">
         <v>25000</v>
       </c>
       <c r="E15" s="13">
         <f t="shared" si="4"/>
-        <v>442477.87610619469</v>
+        <v>204081.63265306124</v>
       </c>
       <c r="F15" s="12">
         <f t="shared" si="5"/>
-        <v>2.26E-6</v>
+        <v>4.8999999999999997E-6</v>
       </c>
       <c r="G15" s="14">
         <v>1208.3900000000001</v>
       </c>
       <c r="H15" s="15">
         <f t="shared" si="6"/>
-        <v>68.274035000000012</v>
+        <v>148.02777500000002</v>
       </c>
       <c r="I15" s="3">
-        <f>H15/$J$4</f>
-        <v>0.14185996533227971</v>
+        <f t="shared" si="7"/>
+        <v>0.30805855692868372</v>
       </c>
       <c r="J15" t="s">
         <v>38</v>
@@ -2646,30 +2667,30 @@
       <c r="B16" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="10">
-        <v>0.14349999999999999</v>
+      <c r="C16" s="17">
+        <v>0.25409999999999999</v>
       </c>
       <c r="D16" s="14">
         <v>250000</v>
       </c>
       <c r="E16" s="13">
         <f t="shared" si="4"/>
-        <v>1742160.2787456447</v>
+        <v>983864.62022825656</v>
       </c>
       <c r="F16" s="12">
         <f t="shared" si="5"/>
-        <v>5.7399999999999993E-7</v>
+        <v>1.0164000000000001E-6</v>
       </c>
       <c r="G16" s="14">
         <v>460.23</v>
       </c>
       <c r="H16" s="15">
         <f t="shared" si="6"/>
-        <v>66.043004999999994</v>
+        <v>116.94444300000001</v>
       </c>
       <c r="I16" s="3">
-        <f>H16/$J$4</f>
-        <v>0.13722432546632951</v>
+        <f t="shared" si="7"/>
+        <v>0.24337146424992678</v>
       </c>
       <c r="J16">
         <v>500</v>
@@ -2679,30 +2700,30 @@
       <c r="B17" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="10">
-        <v>0.23799999999999999</v>
+      <c r="C17" s="17">
+        <v>0.21010000000000001</v>
       </c>
       <c r="D17" s="14">
         <v>500000</v>
       </c>
       <c r="E17" s="13">
         <f t="shared" si="4"/>
-        <v>2100840.3361344538</v>
+        <v>2379819.1337458352</v>
       </c>
       <c r="F17" s="12">
         <f t="shared" si="5"/>
-        <v>4.7600000000000003E-7</v>
+        <v>4.2020000000000002E-7</v>
       </c>
       <c r="G17" s="14">
         <v>277.39999999999998</v>
       </c>
       <c r="H17" s="15">
         <f t="shared" si="6"/>
-        <v>66.021199999999993</v>
+        <v>58.281739999999999</v>
       </c>
       <c r="I17" s="3">
-        <f>H17/$J$4</f>
-        <v>0.13717901898130824</v>
+        <f t="shared" si="7"/>
+        <v>0.12128932370761326</v>
       </c>
       <c r="J17" t="s">
         <v>39</v>
@@ -2712,97 +2733,97 @@
       <c r="B18" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="10">
-        <v>0.375</v>
+      <c r="C18" s="17">
+        <v>0.21</v>
       </c>
       <c r="D18">
         <f>10*1000*1000*1000</f>
         <v>10000000000</v>
       </c>
       <c r="E18" s="13">
-        <f t="shared" si="4"/>
-        <v>26666666666.666668</v>
+        <f t="shared" ref="E18:E20" si="8">D18/C18</f>
+        <v>47619047619.047623</v>
       </c>
       <c r="F18" s="12">
         <f t="shared" si="5"/>
-        <v>3.75E-11</v>
+        <v>2.0999999999999999E-11</v>
       </c>
       <c r="G18" s="14">
         <v>224.23</v>
       </c>
       <c r="H18" s="15">
         <f t="shared" si="6"/>
-        <v>84.086249999999993</v>
+        <v>47.088299999999997</v>
       </c>
       <c r="I18" s="3">
-        <f>H18/$J$4</f>
-        <v>0.17471462628393652</v>
+        <f t="shared" si="7"/>
+        <v>9.7994810407877414E-2</v>
       </c>
       <c r="J18" s="2">
         <f>J14/J16</f>
-        <v>0.94104848000000008</v>
+        <v>0.96103660600000007</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="10">
-        <v>0.12</v>
+      <c r="C19" s="17">
+        <v>0.153</v>
       </c>
       <c r="D19">
         <f>10*1000*1000*1000</f>
         <v>10000000000</v>
       </c>
       <c r="E19" s="13">
-        <f t="shared" si="4"/>
-        <v>83333333333.333344</v>
+        <f t="shared" si="8"/>
+        <v>65359477124.183006</v>
       </c>
       <c r="F19" s="12">
         <f t="shared" si="5"/>
-        <v>1.1999999999999999E-11</v>
+        <v>1.5300000000000001E-11</v>
       </c>
       <c r="G19" s="14">
         <v>202.51</v>
       </c>
       <c r="H19" s="15">
         <f t="shared" si="6"/>
-        <v>24.301199999999998</v>
+        <v>30.984029999999997</v>
       </c>
       <c r="I19" s="3">
-        <f>H19/$J$4</f>
-        <v>5.0493095794510973E-2</v>
+        <f t="shared" si="7"/>
+        <v>6.448043665883002E-2</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="10">
-        <v>0.03</v>
+      <c r="C20" s="17">
+        <v>3.1E-2</v>
       </c>
       <c r="D20">
         <f>10*1000*1000*1000</f>
         <v>10000000000</v>
       </c>
       <c r="E20" s="13">
-        <f t="shared" si="4"/>
-        <v>333333333333.33337</v>
+        <f t="shared" si="8"/>
+        <v>322580645161.29034</v>
       </c>
       <c r="F20" s="12">
         <f t="shared" si="5"/>
-        <v>2.9999999999999997E-12</v>
+        <v>3.0999999999999997E-12</v>
       </c>
       <c r="G20" s="14">
         <v>156.55000000000001</v>
       </c>
       <c r="H20" s="15">
         <f t="shared" si="6"/>
-        <v>4.6965000000000003</v>
+        <v>4.8530500000000005</v>
       </c>
       <c r="I20" s="3">
-        <f>H20/$J$4</f>
-        <v>9.7583997662222775E-3</v>
+        <f t="shared" si="7"/>
+        <v>1.009961528978429E-2</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -2818,73 +2839,73 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B22" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="10">
-        <v>2.8E-3</v>
+      <c r="C22" s="17">
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="D22" s="14">
         <v>299.39999999999998</v>
       </c>
       <c r="E22" s="13">
-        <f t="shared" ref="E22:E30" si="7">D22/C22</f>
-        <v>106928.57142857142</v>
+        <f t="shared" ref="E22:E30" si="9">D22/C22</f>
+        <v>332666.66666666663</v>
       </c>
       <c r="F22" s="12">
-        <f t="shared" ref="F22:F30" si="8">1/E22</f>
-        <v>9.3520374081496332E-6</v>
+        <f t="shared" ref="F22:F30" si="10">1/E22</f>
+        <v>3.0060120240480967E-6</v>
       </c>
       <c r="G22" s="14">
         <v>5835.49</v>
       </c>
       <c r="H22" s="15">
-        <f t="shared" ref="H22:H30" si="9">C22*G22</f>
-        <v>16.339372000000001</v>
+        <f t="shared" ref="H22:H30" si="11">C22*G22</f>
+        <v>5.2519409999999995</v>
       </c>
       <c r="I22" s="3">
-        <f>H22/$J$4</f>
-        <v>3.3949989120625745E-2</v>
+        <f t="shared" ref="I22:I30" si="12">H22/$J$14</f>
+        <v>1.0929741837534123E-2</v>
       </c>
       <c r="J22" s="16">
         <f>SUM(C22:C30)</f>
-        <v>1</v>
+        <v>1.0001</v>
       </c>
       <c r="K22">
         <f>1/SUM(F22:F30)</f>
-        <v>34334.635907869051</v>
+        <v>60613.188370998811</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="10">
-        <v>1.0200000000000001E-2</v>
+      <c r="C23" s="17">
+        <v>3.7000000000000002E-3</v>
       </c>
       <c r="D23" s="14">
         <v>917.43</v>
       </c>
       <c r="E23" s="13">
-        <f t="shared" si="7"/>
-        <v>89944.117647058811</v>
+        <f t="shared" si="9"/>
+        <v>247954.05405405402</v>
       </c>
       <c r="F23" s="12">
-        <f t="shared" si="8"/>
-        <v>1.1118014453418791E-5</v>
+        <f t="shared" si="10"/>
+        <v>4.033005242906816E-6</v>
       </c>
       <c r="G23" s="14">
         <v>6610.41</v>
       </c>
       <c r="H23" s="15">
-        <f t="shared" si="9"/>
-        <v>67.426181999999997</v>
+        <f t="shared" si="11"/>
+        <v>24.458517000000001</v>
       </c>
       <c r="I23" s="3">
-        <f>H23/$J$4</f>
-        <v>0.14009829419058037</v>
+        <f t="shared" si="12"/>
+        <v>5.0900281731828222E-2</v>
       </c>
       <c r="J23" t="s">
         <v>35</v>
@@ -2894,64 +2915,64 @@
       <c r="B24" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="10">
-        <v>2.2499999999999999E-2</v>
+      <c r="C24" s="17">
+        <v>1.37E-2</v>
       </c>
       <c r="D24" s="14">
         <v>4132.2299999999996</v>
       </c>
       <c r="E24" s="13">
-        <f t="shared" si="7"/>
-        <v>183654.66666666666</v>
+        <f t="shared" si="9"/>
+        <v>301622.62773722626</v>
       </c>
       <c r="F24" s="12">
-        <f t="shared" si="8"/>
-        <v>5.4450018513006294E-6</v>
+        <f t="shared" si="10"/>
+        <v>3.3154011272363836E-6</v>
       </c>
       <c r="G24" s="14">
         <v>2986.65</v>
       </c>
       <c r="H24" s="15">
-        <f t="shared" si="9"/>
-        <v>67.199624999999997</v>
+        <f t="shared" si="11"/>
+        <v>40.917104999999999</v>
       </c>
       <c r="I24" s="3">
-        <f>H24/$J$4</f>
-        <v>0.13962755347391134</v>
+        <f t="shared" si="12"/>
+        <v>8.5152021774288156E-2</v>
       </c>
       <c r="J24" s="15">
         <f>SUM(H22:H30)</f>
-        <v>460.64382400000005</v>
+        <v>470.3462229999999</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="10">
-        <v>5.5500000000000001E-2</v>
+      <c r="C25" s="17">
+        <v>0.11899999999999999</v>
       </c>
       <c r="D25" s="14">
         <v>25000</v>
       </c>
       <c r="E25" s="13">
-        <f t="shared" si="7"/>
-        <v>450450.45045045047</v>
+        <f t="shared" si="9"/>
+        <v>210084.03361344538</v>
       </c>
       <c r="F25" s="12">
-        <f t="shared" si="8"/>
-        <v>2.2199999999999999E-6</v>
+        <f t="shared" si="10"/>
+        <v>4.7600000000000002E-6</v>
       </c>
       <c r="G25" s="14">
         <v>1208.3900000000001</v>
       </c>
       <c r="H25" s="15">
-        <f t="shared" si="9"/>
-        <v>67.065645000000004</v>
+        <f t="shared" si="11"/>
+        <v>143.79841000000002</v>
       </c>
       <c r="I25" s="3">
-        <f>H25/$J$4</f>
-        <v>0.13934916948569068</v>
+        <f t="shared" si="12"/>
+        <v>0.29925688387357846</v>
       </c>
       <c r="J25" t="s">
         <v>38</v>
@@ -2961,30 +2982,30 @@
       <c r="B26" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="10">
-        <v>0.13500000000000001</v>
+      <c r="C26" s="17">
+        <v>0.24199999999999999</v>
       </c>
       <c r="D26" s="14">
         <v>250000</v>
       </c>
       <c r="E26" s="13">
-        <f t="shared" si="7"/>
-        <v>1851851.8518518517</v>
+        <f t="shared" si="9"/>
+        <v>1033057.8512396695</v>
       </c>
       <c r="F26" s="12">
-        <f t="shared" si="8"/>
-        <v>5.4000000000000002E-7</v>
+        <f t="shared" si="10"/>
+        <v>9.6799999999999988E-7</v>
       </c>
       <c r="G26" s="14">
         <v>460.23</v>
       </c>
       <c r="H26" s="15">
-        <f t="shared" si="9"/>
-        <v>62.131050000000009</v>
+        <f t="shared" si="11"/>
+        <v>111.37566</v>
       </c>
       <c r="I26" s="3">
-        <f>H26/$J$4</f>
-        <v>0.12909605531675603</v>
+        <f t="shared" si="12"/>
+        <v>0.23178234690469215</v>
       </c>
       <c r="J26">
         <v>500</v>
@@ -2994,30 +3015,30 @@
       <c r="B27" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="10">
-        <v>0.22500000000000001</v>
+      <c r="C27" s="17">
+        <v>0.20780000000000001</v>
       </c>
       <c r="D27" s="14">
         <v>500000</v>
       </c>
       <c r="E27" s="13">
-        <f t="shared" si="7"/>
-        <v>2222222.222222222</v>
+        <f t="shared" si="9"/>
+        <v>2406159.7690086621</v>
       </c>
       <c r="F27" s="12">
-        <f t="shared" si="8"/>
-        <v>4.5000000000000003E-7</v>
+        <f t="shared" si="10"/>
+        <v>4.1559999999999999E-7</v>
       </c>
       <c r="G27" s="14">
         <v>277.39999999999998</v>
       </c>
       <c r="H27" s="15">
-        <f t="shared" si="9"/>
-        <v>62.414999999999999</v>
+        <f t="shared" si="11"/>
+        <v>57.643720000000002</v>
       </c>
       <c r="I27" s="3">
-        <f>H27/$J$4</f>
-        <v>0.12968604735627881</v>
+        <f t="shared" si="12"/>
+        <v>0.1199615491025323</v>
       </c>
       <c r="J27" t="s">
         <v>39</v>
@@ -3027,100 +3048,103 @@
       <c r="B28" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="10">
-        <v>0.38700000000000001</v>
+      <c r="C28" s="17">
+        <v>0.218</v>
       </c>
       <c r="D28">
         <f>10*1000*1000*1000</f>
         <v>10000000000</v>
       </c>
       <c r="E28" s="13">
-        <f t="shared" si="7"/>
-        <v>25839793281.653748</v>
+        <f t="shared" si="9"/>
+        <v>45871559633.027527</v>
       </c>
       <c r="F28" s="12">
-        <f t="shared" si="8"/>
-        <v>3.8699999999999999E-11</v>
+        <f t="shared" si="10"/>
+        <v>2.1799999999999998E-11</v>
       </c>
       <c r="G28" s="14">
         <v>224.23</v>
       </c>
       <c r="H28" s="15">
-        <f t="shared" si="9"/>
-        <v>86.777010000000004</v>
+        <f t="shared" si="11"/>
+        <v>48.88214</v>
       </c>
       <c r="I28" s="3">
-        <f>H28/$J$4</f>
-        <v>0.18030549432502252</v>
+        <f t="shared" si="12"/>
+        <v>0.10172794604246323</v>
       </c>
       <c r="J28" s="2">
         <f>J24/J26</f>
-        <v>0.92128764800000007</v>
+        <v>0.94069244599999979</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="10">
-        <v>0.129</v>
+      <c r="C29" s="17">
+        <v>0.16300000000000001</v>
       </c>
       <c r="D29">
         <f>10*1000*1000*1000</f>
         <v>10000000000</v>
       </c>
       <c r="E29" s="13">
-        <f t="shared" si="7"/>
-        <v>77519379844.961243</v>
+        <f t="shared" si="9"/>
+        <v>61349693251.533737</v>
       </c>
       <c r="F29" s="12">
-        <f t="shared" si="8"/>
-        <v>1.29E-11</v>
+        <f t="shared" si="10"/>
+        <v>1.6300000000000001E-11</v>
       </c>
       <c r="G29" s="14">
         <v>202.51</v>
       </c>
       <c r="H29" s="15">
-        <f t="shared" si="9"/>
-        <v>26.12379</v>
+        <f t="shared" si="11"/>
+        <v>33.009129999999999</v>
       </c>
       <c r="I29" s="3">
-        <f>H29/$J$4</f>
-        <v>5.4280077979099298E-2</v>
+        <f t="shared" si="12"/>
+        <v>6.8694844283590156E-2</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="10">
-        <v>3.3000000000000002E-2</v>
+      <c r="C30" s="17">
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="D30">
         <f>10*1000*1000*1000</f>
         <v>10000000000</v>
       </c>
       <c r="E30" s="13">
-        <f t="shared" si="7"/>
-        <v>303030303030.30304</v>
+        <f t="shared" si="9"/>
+        <v>312500000000</v>
       </c>
       <c r="F30" s="12">
-        <f t="shared" si="8"/>
-        <v>3.3000000000000001E-12</v>
+        <f t="shared" si="10"/>
+        <v>3.2000000000000001E-12</v>
       </c>
       <c r="G30" s="14">
         <v>156.55000000000001</v>
       </c>
       <c r="H30" s="15">
-        <f t="shared" si="9"/>
-        <v>5.1661500000000009</v>
+        <f t="shared" si="11"/>
+        <v>5.0096000000000007</v>
       </c>
       <c r="I30" s="3">
-        <f>H30/$J$4</f>
-        <v>1.0734239742844506E-2</v>
+        <f t="shared" si="12"/>
+        <v>1.0425409331390235E-2</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E31" s="13"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="15"/>
       <c r="J31" t="s">
         <v>37</v>
       </c>
@@ -3130,35 +3154,35 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B32" t="s">
         <v>24</v>
       </c>
-      <c r="C32" s="10">
-        <v>2.5000000000000001E-3</v>
+      <c r="C32" s="17">
+        <v>8.4999999999999995E-4</v>
       </c>
       <c r="D32" s="14">
         <v>299.39999999999998</v>
       </c>
       <c r="E32" s="13">
-        <f t="shared" ref="E32:E40" si="10">D32/C32</f>
-        <v>119759.99999999999</v>
+        <f t="shared" ref="E32:E40" si="13">D32/C32</f>
+        <v>352235.29411764705</v>
       </c>
       <c r="F32" s="12">
-        <f t="shared" ref="F32:F40" si="11">1/E32</f>
-        <v>8.3500334001336022E-6</v>
+        <f t="shared" ref="F32:F40" si="14">1/E32</f>
+        <v>2.8390113560454242E-6</v>
       </c>
       <c r="G32" s="14">
         <v>5835.49</v>
       </c>
       <c r="H32" s="15">
-        <f t="shared" ref="H32:H40" si="12">C32*G32</f>
-        <v>14.588725</v>
+        <f t="shared" ref="H32:H40" si="15">C32*G32</f>
+        <v>4.9601664999999997</v>
       </c>
       <c r="I32" s="3">
-        <f>H32/$J$4</f>
-        <v>3.0312490286272989E-2</v>
+        <f t="shared" ref="I32:I40" si="16">H32/$J$14</f>
+        <v>1.0322533957671118E-2</v>
       </c>
       <c r="J32" s="16">
         <f>SUM(C32:C40)</f>
@@ -3166,276 +3190,602 @@
       </c>
       <c r="K32">
         <f>1/SUM(F32:F40)</f>
-        <v>37842.796788456544</v>
-      </c>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
+        <v>62845.02413372881</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>25</v>
       </c>
-      <c r="C33" s="10">
-        <v>9.4999999999999998E-3</v>
+      <c r="C33" s="17">
+        <v>3.7499999999999999E-3</v>
       </c>
       <c r="D33" s="14">
         <v>917.43</v>
       </c>
       <c r="E33" s="13">
-        <f t="shared" si="10"/>
-        <v>96571.578947368413</v>
+        <f t="shared" si="13"/>
+        <v>244648</v>
       </c>
       <c r="F33" s="12">
-        <f t="shared" si="11"/>
-        <v>1.0355013461517501E-5</v>
+        <f t="shared" si="14"/>
+        <v>4.0875053137569082E-6</v>
       </c>
       <c r="G33" s="14">
         <v>6610.41</v>
       </c>
       <c r="H33" s="15">
-        <f t="shared" si="12"/>
-        <v>62.798894999999995</v>
+        <f t="shared" si="15"/>
+        <v>24.789037499999999</v>
       </c>
       <c r="I33" s="3">
-        <f>H33/$J$4</f>
-        <v>0.13048370537357973</v>
+        <f t="shared" si="16"/>
+        <v>5.1588123376852923E-2</v>
       </c>
       <c r="J33" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>26</v>
       </c>
-      <c r="C34" s="10">
-        <v>0.02</v>
+      <c r="C34" s="17">
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="D34" s="14">
         <v>4132.2299999999996</v>
       </c>
       <c r="E34" s="13">
-        <f t="shared" si="10"/>
-        <v>206611.49999999997</v>
+        <f t="shared" si="13"/>
+        <v>317863.84615384613</v>
       </c>
       <c r="F34" s="12">
-        <f t="shared" si="11"/>
-        <v>4.8400016456005601E-6</v>
+        <f t="shared" si="14"/>
+        <v>3.1460010696403641E-6</v>
       </c>
       <c r="G34" s="14">
         <v>2986.65</v>
       </c>
       <c r="H34" s="15">
-        <f t="shared" si="12"/>
-        <v>59.733000000000004</v>
+        <f t="shared" si="15"/>
+        <v>38.826450000000001</v>
       </c>
       <c r="I34" s="3">
-        <f>H34/$J$4</f>
-        <v>0.12411338086569899</v>
+        <f t="shared" si="16"/>
+        <v>8.0801188544944974E-2</v>
       </c>
       <c r="J34" s="15">
         <f>SUM(H32:H40)</f>
-        <v>436.35603999999995</v>
-      </c>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
+        <v>460.13735600000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>27</v>
       </c>
-      <c r="C35" s="10">
-        <v>0.05</v>
+      <c r="C35" s="17">
+        <v>0.111</v>
       </c>
       <c r="D35" s="14">
         <v>25000</v>
       </c>
       <c r="E35" s="13">
-        <f t="shared" si="10"/>
-        <v>500000</v>
+        <f t="shared" si="13"/>
+        <v>225225.22522522524</v>
       </c>
       <c r="F35" s="12">
-        <f t="shared" si="11"/>
-        <v>1.9999999999999999E-6</v>
+        <f t="shared" si="14"/>
+        <v>4.4399999999999998E-6</v>
       </c>
       <c r="G35" s="14">
         <v>1208.3900000000001</v>
       </c>
       <c r="H35" s="15">
-        <f t="shared" si="12"/>
-        <v>60.419500000000006</v>
+        <f t="shared" si="15"/>
+        <v>134.13129000000001</v>
       </c>
       <c r="I35" s="3">
-        <f>H35/$J$4</f>
-        <v>0.12553979232945106</v>
+        <f t="shared" si="16"/>
+        <v>0.27913877403333787</v>
       </c>
       <c r="J35" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>28</v>
       </c>
-      <c r="C36" s="10">
-        <v>0.11899999999999999</v>
+      <c r="C36" s="17">
+        <v>0.2384</v>
       </c>
       <c r="D36" s="14">
         <v>250000</v>
       </c>
       <c r="E36" s="13">
-        <f t="shared" si="10"/>
-        <v>2100840.3361344538</v>
+        <f t="shared" si="13"/>
+        <v>1048657.7181208055</v>
       </c>
       <c r="F36" s="12">
-        <f t="shared" si="11"/>
-        <v>4.7600000000000003E-7</v>
+        <f t="shared" si="14"/>
+        <v>9.5359999999999996E-7</v>
       </c>
       <c r="G36" s="14">
         <v>460.23</v>
       </c>
       <c r="H36" s="15">
-        <f t="shared" si="12"/>
-        <v>54.76737</v>
+        <f t="shared" si="15"/>
+        <v>109.71883200000001</v>
       </c>
       <c r="I36" s="3">
-        <f>H36/$J$4</f>
-        <v>0.11379578209402937</v>
+        <f t="shared" si="16"/>
+        <v>0.22833434504991165</v>
       </c>
       <c r="J36">
         <v>500</v>
       </c>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>29</v>
       </c>
-      <c r="C37" s="10">
-        <v>0.20200000000000001</v>
+      <c r="C37" s="17">
+        <v>0.223</v>
       </c>
       <c r="D37" s="14">
         <v>500000</v>
       </c>
       <c r="E37" s="13">
-        <f t="shared" si="10"/>
-        <v>2475247.5247524753</v>
+        <f t="shared" si="13"/>
+        <v>2242152.4663677132</v>
       </c>
       <c r="F37" s="12">
-        <f t="shared" si="11"/>
-        <v>4.0399999999999996E-7</v>
+        <f t="shared" si="14"/>
+        <v>4.4599999999999994E-7</v>
       </c>
       <c r="G37" s="14">
         <v>277.39999999999998</v>
       </c>
       <c r="H37" s="15">
-        <f t="shared" si="12"/>
-        <v>56.034799999999997</v>
+        <f t="shared" si="15"/>
+        <v>61.860199999999999</v>
       </c>
       <c r="I37" s="3">
-        <f>H37/$J$4</f>
-        <v>0.11642925140430363</v>
+        <f t="shared" si="16"/>
+        <v>0.1287364073621978</v>
       </c>
       <c r="J37" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>30</v>
       </c>
-      <c r="C38" s="10">
-        <v>0.40799999999999997</v>
+      <c r="C38" s="17">
+        <v>0.20399999999999999</v>
       </c>
       <c r="D38">
         <f>10*1000*1000*1000</f>
         <v>10000000000</v>
       </c>
       <c r="E38" s="13">
-        <f t="shared" si="10"/>
-        <v>24509803921.56863</v>
+        <f t="shared" si="13"/>
+        <v>49019607843.13726</v>
       </c>
       <c r="F38" s="12">
-        <f t="shared" si="11"/>
-        <v>4.0799999999999997E-11</v>
+        <f t="shared" si="14"/>
+        <v>2.0399999999999999E-11</v>
       </c>
       <c r="G38" s="14">
         <v>224.23</v>
       </c>
       <c r="H38" s="15">
-        <f t="shared" si="12"/>
-        <v>91.485839999999996</v>
+        <f t="shared" si="15"/>
+        <v>45.742919999999998</v>
       </c>
       <c r="I38" s="3">
-        <f>H38/$J$4</f>
-        <v>0.19008951339692293</v>
+        <f t="shared" si="16"/>
+        <v>9.5194958681938058E-2</v>
       </c>
       <c r="J38" s="2">
         <f>J34/J36</f>
-        <v>0.87271207999999989</v>
-      </c>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.3">
+        <v>0.92027471199999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>31</v>
       </c>
-      <c r="C39" s="10">
-        <v>0.151</v>
+      <c r="C39" s="17">
+        <v>0.17100000000000001</v>
       </c>
       <c r="D39">
         <f>10*1000*1000*1000</f>
         <v>10000000000</v>
       </c>
       <c r="E39" s="13">
-        <f t="shared" si="10"/>
-        <v>66225165562.91391</v>
+        <f t="shared" si="13"/>
+        <v>58479532163.742683</v>
       </c>
       <c r="F39" s="12">
-        <f t="shared" si="11"/>
-        <v>1.5099999999999998E-11</v>
+        <f t="shared" si="14"/>
+        <v>1.7100000000000001E-11</v>
       </c>
       <c r="G39" s="14">
         <v>202.51</v>
       </c>
       <c r="H39" s="15">
-        <f t="shared" si="12"/>
-        <v>30.579009999999997</v>
+        <f t="shared" si="15"/>
+        <v>34.62921</v>
       </c>
       <c r="I39" s="3">
-        <f>H39/$J$4</f>
-        <v>6.3537145541426296E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="16"/>
+        <v>7.2066370383398276E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>32</v>
       </c>
-      <c r="C40" s="10">
-        <v>3.7999999999999999E-2</v>
+      <c r="C40" s="17">
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="D40">
         <f>10*1000*1000*1000</f>
         <v>10000000000</v>
       </c>
       <c r="E40" s="13">
-        <f t="shared" si="10"/>
-        <v>263157894736.8421</v>
+        <f t="shared" si="13"/>
+        <v>285714285714.28571</v>
       </c>
       <c r="F40" s="12">
-        <f t="shared" si="11"/>
-        <v>3.8E-12</v>
+        <f t="shared" si="14"/>
+        <v>3.5E-12</v>
       </c>
       <c r="G40" s="14">
         <v>156.55000000000001</v>
       </c>
       <c r="H40" s="15">
-        <f t="shared" si="12"/>
-        <v>5.9489000000000001</v>
+        <f t="shared" si="15"/>
+        <v>5.4792500000000013</v>
       </c>
       <c r="I40" s="3">
-        <f>H40/$J$4</f>
-        <v>1.236063970388155E-2</v>
+        <f t="shared" si="16"/>
+        <v>1.140279145620807E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J41" t="s">
+        <v>37</v>
+      </c>
+      <c r="K41" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>87</v>
+      </c>
+      <c r="B42" t="s">
+        <v>24</v>
+      </c>
+      <c r="C42" s="17">
+        <v>7.2000000000000005E-4</v>
+      </c>
+      <c r="D42" s="14">
+        <v>299.39999999999998</v>
+      </c>
+      <c r="E42" s="13">
+        <f t="shared" ref="E42:E50" si="17">D42/C42</f>
+        <v>415833.33333333326</v>
+      </c>
+      <c r="F42" s="12">
+        <f t="shared" ref="F42:F50" si="18">1/E42</f>
+        <v>2.4048096192384776E-6</v>
+      </c>
+      <c r="G42" s="14">
+        <v>5835.49</v>
+      </c>
+      <c r="H42" s="15">
+        <f t="shared" ref="H42:H50" si="19">C42*G42</f>
+        <v>4.2015528</v>
+      </c>
+      <c r="I42" s="3">
+        <f t="shared" ref="I42:I50" si="20">H42/$J$14</f>
+        <v>8.7437934700272998E-3</v>
+      </c>
+      <c r="J42" s="16">
+        <f>SUM(C42:C50)</f>
+        <v>1</v>
+      </c>
+      <c r="K42">
+        <f>1/SUM(F42:F50)</f>
+        <v>71365.050899813054</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>25</v>
+      </c>
+      <c r="C43" s="17">
+        <v>3.0799999999999998E-3</v>
+      </c>
+      <c r="D43" s="14">
+        <v>917.43</v>
+      </c>
+      <c r="E43" s="13">
+        <f t="shared" si="17"/>
+        <v>297866.88311688311</v>
+      </c>
+      <c r="F43" s="12">
+        <f t="shared" si="18"/>
+        <v>3.3572043643656738E-6</v>
+      </c>
+      <c r="G43" s="14">
+        <v>6610.41</v>
+      </c>
+      <c r="H43" s="15">
+        <f t="shared" si="19"/>
+        <v>20.360062799999998</v>
+      </c>
+      <c r="I43" s="3">
+        <f t="shared" si="20"/>
+        <v>4.2371045333521866E-2</v>
+      </c>
+      <c r="J43" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>26</v>
+      </c>
+      <c r="C44" s="17">
+        <v>1.12E-2</v>
+      </c>
+      <c r="D44" s="14">
+        <v>4132.2299999999996</v>
+      </c>
+      <c r="E44" s="13">
+        <f t="shared" si="17"/>
+        <v>368949.1071428571</v>
+      </c>
+      <c r="F44" s="12">
+        <f t="shared" si="18"/>
+        <v>2.7104009215363135E-6</v>
+      </c>
+      <c r="G44" s="14">
+        <v>2986.65</v>
+      </c>
+      <c r="H44" s="15">
+        <f t="shared" si="19"/>
+        <v>33.450479999999999</v>
+      </c>
+      <c r="I44" s="3">
+        <f t="shared" si="20"/>
+        <v>6.9613331669491046E-2</v>
+      </c>
+      <c r="J44" s="15">
+        <f>SUM(H42:H50)</f>
+        <v>435.59016560000003</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
+        <v>27</v>
+      </c>
+      <c r="C45" s="17">
+        <v>0.108</v>
+      </c>
+      <c r="D45" s="14">
+        <v>25000</v>
+      </c>
+      <c r="E45" s="13">
+        <f t="shared" si="17"/>
+        <v>231481.48148148149</v>
+      </c>
+      <c r="F45" s="12">
+        <f t="shared" si="18"/>
+        <v>4.3200000000000001E-6</v>
+      </c>
+      <c r="G45" s="14">
+        <v>1208.3900000000001</v>
+      </c>
+      <c r="H45" s="15">
+        <f t="shared" si="19"/>
+        <v>130.50612000000001</v>
+      </c>
+      <c r="I45" s="3">
+        <f t="shared" si="20"/>
+        <v>0.27159448284324766</v>
+      </c>
+      <c r="J45" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
+        <v>28</v>
+      </c>
+      <c r="C46" s="17">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="D46" s="14">
+        <v>250000</v>
+      </c>
+      <c r="E46" s="13">
+        <f t="shared" si="17"/>
+        <v>1282051.282051282</v>
+      </c>
+      <c r="F46" s="12">
+        <f t="shared" si="18"/>
+        <v>7.8000000000000005E-7</v>
+      </c>
+      <c r="G46" s="14">
+        <v>460.23</v>
+      </c>
+      <c r="H46" s="15">
+        <f t="shared" si="19"/>
+        <v>89.74485</v>
+      </c>
+      <c r="I46" s="3">
+        <f t="shared" si="20"/>
+        <v>0.18676676713394616</v>
+      </c>
+      <c r="J46">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>29</v>
+      </c>
+      <c r="C47" s="17">
+        <v>0.22</v>
+      </c>
+      <c r="D47" s="14">
+        <v>500000</v>
+      </c>
+      <c r="E47" s="13">
+        <f t="shared" si="17"/>
+        <v>2272727.2727272729</v>
+      </c>
+      <c r="F47" s="12">
+        <f t="shared" si="18"/>
+        <v>4.3999999999999997E-7</v>
+      </c>
+      <c r="G47" s="14">
+        <v>277.39999999999998</v>
+      </c>
+      <c r="H47" s="15">
+        <f t="shared" si="19"/>
+        <v>61.027999999999999</v>
+      </c>
+      <c r="I47" s="3">
+        <f t="shared" si="20"/>
+        <v>0.12700452744252697</v>
+      </c>
+      <c r="J47" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
+        <v>30</v>
+      </c>
+      <c r="C48" s="17">
+        <v>0.215</v>
+      </c>
+      <c r="D48">
+        <f>10*1000*1000*1000</f>
+        <v>10000000000</v>
+      </c>
+      <c r="E48" s="13">
+        <f t="shared" si="17"/>
+        <v>46511627906.976746</v>
+      </c>
+      <c r="F48" s="12">
+        <f t="shared" si="18"/>
+        <v>2.15E-11</v>
+      </c>
+      <c r="G48" s="14">
+        <v>224.23</v>
+      </c>
+      <c r="H48" s="15">
+        <f t="shared" si="19"/>
+        <v>48.209449999999997</v>
+      </c>
+      <c r="I48" s="3">
+        <f t="shared" si="20"/>
+        <v>0.10032802017949354</v>
+      </c>
+      <c r="J48" s="2">
+        <f>J44/J46</f>
+        <v>0.87118033120000005</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
+        <v>31</v>
+      </c>
+      <c r="C49" s="17">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="D49">
+        <f>10*1000*1000*1000</f>
+        <v>10000000000</v>
+      </c>
+      <c r="E49" s="13">
+        <f t="shared" si="17"/>
+        <v>48780487804.878052</v>
+      </c>
+      <c r="F49" s="12">
+        <f t="shared" si="18"/>
+        <v>2.05E-11</v>
+      </c>
+      <c r="G49" s="14">
+        <v>202.51</v>
+      </c>
+      <c r="H49" s="15">
+        <f t="shared" si="19"/>
+        <v>41.514549999999993</v>
+      </c>
+      <c r="I49" s="3">
+        <f t="shared" si="20"/>
+        <v>8.6395356307582702E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>32</v>
+      </c>
+      <c r="C50" s="17">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="D50">
+        <f>10*1000*1000*1000</f>
+        <v>10000000000</v>
+      </c>
+      <c r="E50" s="13">
+        <f t="shared" si="17"/>
+        <v>238095238095.23807</v>
+      </c>
+      <c r="F50" s="12">
+        <f t="shared" si="18"/>
+        <v>4.2000000000000007E-12</v>
+      </c>
+      <c r="G50" s="14">
+        <v>156.55000000000001</v>
+      </c>
+      <c r="H50" s="15">
+        <f t="shared" si="19"/>
+        <v>6.5751000000000008</v>
+      </c>
+      <c r="I50" s="3">
+        <f t="shared" si="20"/>
+        <v>1.3683349747449683E-2</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="I1:I1048576 J1:K1">
-    <cfRule type="dataBar" priority="9">
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="dataBar" priority="6">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{E4CBCD81-E754-4F87-98C0-E3012DB8901C}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I1:K1 I2:I1048576">
+    <cfRule type="dataBar" priority="11">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3449,7 +3799,21 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11">
-    <cfRule type="dataBar" priority="8">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{97C67081-1B73-4DC8-B49A-6F51BD0CC9C3}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J21">
+    <cfRule type="dataBar" priority="10">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3462,8 +3826,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J21">
-    <cfRule type="dataBar" priority="7">
+  <conditionalFormatting sqref="J31">
+    <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3476,22 +3840,36 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="dataBar" priority="4">
+  <conditionalFormatting sqref="J41:K41">
+    <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
-        <color rgb="FFFFB628"/>
+        <color rgb="FF63C384"/>
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{E4CBCD81-E754-4F87-98C0-E3012DB8901C}</x14:id>
+          <x14:id>{6EDFADC1-3F73-47C6-8E4F-4F58AA31007D}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11">
-    <cfRule type="dataBar" priority="3">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{1199C1B7-88F4-480D-A0DB-BFDBB690BFAB}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K21">
+    <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3504,8 +3882,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K21">
-    <cfRule type="dataBar" priority="2">
+  <conditionalFormatting sqref="K31">
+    <cfRule type="dataBar" priority="4">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3518,63 +3896,10 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J31:K31">
-    <cfRule type="dataBar" priority="1">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6EDFADC1-3F73-47C6-8E4F-4F58AA31007D}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{BD8FB0B1-2754-4811-A1C2-191089641852}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF63C384"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>I1:I1048576 J1:K1</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{847B2E31-0AE3-4A67-AA95-598910B90882}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF63C384"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>J11</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{778EF204-F4E5-4491-BB73-C5E9C9C4F62D}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF63C384"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>J21</xm:sqref>
-        </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{E4CBCD81-E754-4F87-98C0-E3012DB8901C}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
@@ -3589,7 +3914,72 @@
           <xm:sqref>C1:C1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{CFA15B8D-126D-4509-AE37-426A004D0D24}">
+          <x14:cfRule type="dataBar" id="{BD8FB0B1-2754-4811-A1C2-191089641852}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>I1:K1 I2:I1048576</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{97C67081-1B73-4DC8-B49A-6F51BD0CC9C3}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>J11</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{847B2E31-0AE3-4A67-AA95-598910B90882}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>J21</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{778EF204-F4E5-4491-BB73-C5E9C9C4F62D}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>J31</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{6EDFADC1-3F73-47C6-8E4F-4F58AA31007D}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>J41:K41</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{1199C1B7-88F4-480D-A0DB-BFDBB690BFAB}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3602,7 +3992,7 @@
           <xm:sqref>K11</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{82A1220E-2AFE-4E2D-B599-58F7714DFC9E}">
+          <x14:cfRule type="dataBar" id="{CFA15B8D-126D-4509-AE37-426A004D0D24}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3615,7 +4005,7 @@
           <xm:sqref>K21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6EDFADC1-3F73-47C6-8E4F-4F58AA31007D}">
+          <x14:cfRule type="dataBar" id="{82A1220E-2AFE-4E2D-B599-58F7714DFC9E}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3625,7 +4015,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>J31:K31</xm:sqref>
+          <xm:sqref>K31</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -3634,6 +4024,411 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9F3E64E-141C-4FD7-A2FA-50296C52A2FE}">
+  <dimension ref="A1:N20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" customWidth="1"/>
+    <col min="7" max="7" width="9.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>10000</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3">
+        <f>B2/10000000</f>
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>100</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3">
+        <f>E2/10000000</f>
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <f>B15+E8</f>
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>5000</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3">
+        <f t="shared" ref="C3:C15" si="0">B3/10000000</f>
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>20</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3">
+        <f t="shared" ref="F3:F8" si="1">E3/10000000</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2500</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>350</v>
+      </c>
+      <c r="F4" s="3">
+        <f t="shared" si="1"/>
+        <v>3.4999999999999997E-5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1000</v>
+      </c>
+      <c r="B5">
+        <v>550</v>
+      </c>
+      <c r="C5" s="3">
+        <f t="shared" si="0"/>
+        <v>5.5000000000000002E-5</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>4650</v>
+      </c>
+      <c r="F5" s="3">
+        <f t="shared" si="1"/>
+        <v>4.6500000000000003E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>500</v>
+      </c>
+      <c r="B6">
+        <v>3450</v>
+      </c>
+      <c r="C6" s="3">
+        <f t="shared" si="0"/>
+        <v>3.4499999999999998E-4</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>24000</v>
+      </c>
+      <c r="F6" s="3">
+        <f t="shared" si="1"/>
+        <v>2.3999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>250</v>
+      </c>
+      <c r="B7">
+        <v>27000</v>
+      </c>
+      <c r="C7" s="3">
+        <f t="shared" si="0"/>
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>96000</v>
+      </c>
+      <c r="F7" s="3">
+        <f t="shared" si="1"/>
+        <v>9.5999999999999992E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>100</v>
+      </c>
+      <c r="B8">
+        <v>45500</v>
+      </c>
+      <c r="C8" s="3">
+        <f t="shared" si="0"/>
+        <v>4.5500000000000002E-3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8">
+        <f>SUM(E2:E7)</f>
+        <v>125000</v>
+      </c>
+      <c r="F8" s="3">
+        <f t="shared" si="1"/>
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="I8" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" s="2"/>
+      <c r="N8" s="8">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>50</v>
+      </c>
+      <c r="B9">
+        <v>91000</v>
+      </c>
+      <c r="C9" s="3">
+        <f t="shared" si="0"/>
+        <v>9.1000000000000004E-3</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6">
+        <f>SUMPRODUCT(D2:D7, E2:E7)/SUM(E2:E7)</f>
+        <v>2.3260000000000001</v>
+      </c>
+      <c r="I9" t="s">
+        <v>3</v>
+      </c>
+      <c r="K9" s="2"/>
+      <c r="N9" s="3">
+        <v>0.67500000000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>25</v>
+      </c>
+      <c r="B10">
+        <v>175000</v>
+      </c>
+      <c r="C10" s="3">
+        <f t="shared" si="0"/>
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="2"/>
+      <c r="N10" s="3">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>575000</v>
+      </c>
+      <c r="C11" s="3">
+        <f t="shared" si="0"/>
+        <v>5.7500000000000002E-2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>1407500</v>
+      </c>
+      <c r="C12" s="3">
+        <f t="shared" si="0"/>
+        <v>0.14074999999999999</v>
+      </c>
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>2850000</v>
+      </c>
+      <c r="C13" s="3">
+        <f t="shared" si="0"/>
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" s="9">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>4700000</v>
+      </c>
+      <c r="C14" s="3">
+        <f t="shared" si="0"/>
+        <v>0.47</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" s="9">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15">
+        <f>SUM(B2:B14)</f>
+        <v>9875000</v>
+      </c>
+      <c r="C15" s="3">
+        <f t="shared" si="0"/>
+        <v>0.98750000000000004</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15" s="9">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="7">
+        <f>SUMPRODUCT(A2:A14, B2:B14)/SUM(B2:B14)</f>
+        <v>4.6265822784810124</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16" s="9">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D17">
+        <v>4</v>
+      </c>
+      <c r="E17" s="9">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D18">
+        <v>5</v>
+      </c>
+      <c r="E18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D19">
+        <v>6</v>
+      </c>
+      <c r="E19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AACD69C7-0B91-4FA6-B560-29FF47C4C8FC}">
   <dimension ref="A1:N20"/>
   <sheetViews>
@@ -4039,6 +4834,1916 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{116FE2A6-E242-4AE4-8B7A-5C38F88DBD5E}">
+  <dimension ref="A1:L50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>97</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="10">
+        <v>3.15E-3</v>
+      </c>
+      <c r="D2" s="14">
+        <v>299.39999999999998</v>
+      </c>
+      <c r="E2" s="13">
+        <f t="shared" ref="E2:E10" si="0">D2/C2</f>
+        <v>95047.619047619039</v>
+      </c>
+      <c r="F2" s="12">
+        <f t="shared" ref="F2:F10" si="1">1/E2</f>
+        <v>1.0521042084168337E-5</v>
+      </c>
+      <c r="G2" s="14">
+        <v>5835.49</v>
+      </c>
+      <c r="H2" s="15">
+        <f t="shared" ref="H2:H10" si="2">C2*G2</f>
+        <v>18.381793500000001</v>
+      </c>
+      <c r="I2" s="3">
+        <f t="shared" ref="I2:I10" si="3">H2/$J$14</f>
+        <v>3.8193737760703964E-2</v>
+      </c>
+      <c r="J2" s="16">
+        <f>SUM(C2:C10)</f>
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <f>1/SUM(F2:F10)</f>
+        <v>30824.419546377463</v>
+      </c>
+      <c r="L2">
+        <f>1/SUM(G2:G10)</f>
+        <v>5.5673521561798172E-5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="10">
+        <v>1.125E-2</v>
+      </c>
+      <c r="D3" s="14">
+        <v>917.43</v>
+      </c>
+      <c r="E3" s="13">
+        <f t="shared" si="0"/>
+        <v>81549.333333333328</v>
+      </c>
+      <c r="F3" s="12">
+        <f t="shared" si="1"/>
+        <v>1.2262515941270724E-5</v>
+      </c>
+      <c r="G3" s="14">
+        <v>6610.41</v>
+      </c>
+      <c r="H3" s="15">
+        <f t="shared" si="2"/>
+        <v>74.36711249999999</v>
+      </c>
+      <c r="I3" s="3">
+        <f t="shared" si="3"/>
+        <v>0.15452017741608126</v>
+      </c>
+      <c r="J3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="10">
+        <v>2.5499999999999998E-2</v>
+      </c>
+      <c r="D4" s="14">
+        <v>4132.2299999999996</v>
+      </c>
+      <c r="E4" s="13">
+        <f t="shared" si="0"/>
+        <v>162048.23529411765</v>
+      </c>
+      <c r="F4" s="12">
+        <f t="shared" si="1"/>
+        <v>6.171002098140713E-6</v>
+      </c>
+      <c r="G4" s="14">
+        <v>2986.65</v>
+      </c>
+      <c r="H4" s="15">
+        <f t="shared" si="2"/>
+        <v>76.159575000000004</v>
+      </c>
+      <c r="I4" s="3">
+        <f t="shared" si="3"/>
+        <v>0.15824456060376621</v>
+      </c>
+      <c r="J4" s="15">
+        <f>SUM(H2:H10)</f>
+        <v>487.17335200000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="10">
+        <v>6.0299999999999999E-2</v>
+      </c>
+      <c r="D5" s="14">
+        <v>25000</v>
+      </c>
+      <c r="E5" s="13">
+        <f t="shared" si="0"/>
+        <v>414593.69817578775</v>
+      </c>
+      <c r="F5" s="12">
+        <f t="shared" si="1"/>
+        <v>2.4119999999999999E-6</v>
+      </c>
+      <c r="G5" s="14">
+        <v>1208.3900000000001</v>
+      </c>
+      <c r="H5" s="15">
+        <f t="shared" si="2"/>
+        <v>72.86591700000001</v>
+      </c>
+      <c r="I5" s="3">
+        <f t="shared" si="3"/>
+        <v>0.15140098954931799</v>
+      </c>
+      <c r="J5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="10">
+        <v>0.14879999999999999</v>
+      </c>
+      <c r="D6" s="14">
+        <v>250000</v>
+      </c>
+      <c r="E6" s="13">
+        <f t="shared" si="0"/>
+        <v>1680107.5268817206</v>
+      </c>
+      <c r="F6" s="12">
+        <f t="shared" si="1"/>
+        <v>5.9519999999999993E-7</v>
+      </c>
+      <c r="G6" s="14">
+        <v>460.23</v>
+      </c>
+      <c r="H6" s="15">
+        <f t="shared" si="2"/>
+        <v>68.482224000000002</v>
+      </c>
+      <c r="I6" s="3">
+        <f t="shared" si="3"/>
+        <v>0.14229254097135774</v>
+      </c>
+      <c r="J6">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="10">
+        <v>0.24</v>
+      </c>
+      <c r="D7" s="14">
+        <v>500000</v>
+      </c>
+      <c r="E7" s="13">
+        <f t="shared" si="0"/>
+        <v>2083333.3333333335</v>
+      </c>
+      <c r="F7" s="12">
+        <f t="shared" si="1"/>
+        <v>4.7999999999999996E-7</v>
+      </c>
+      <c r="G7" s="14">
+        <v>277.39999999999998</v>
+      </c>
+      <c r="H7" s="15">
+        <f t="shared" si="2"/>
+        <v>66.575999999999993</v>
+      </c>
+      <c r="I7" s="3">
+        <f t="shared" si="3"/>
+        <v>0.13833178384669736</v>
+      </c>
+      <c r="J7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="10">
+        <v>0.375</v>
+      </c>
+      <c r="D8">
+        <f>10*1000*1000*1000</f>
+        <v>10000000000</v>
+      </c>
+      <c r="E8" s="13">
+        <f t="shared" si="0"/>
+        <v>26666666666.666668</v>
+      </c>
+      <c r="F8" s="12">
+        <f t="shared" si="1"/>
+        <v>3.75E-11</v>
+      </c>
+      <c r="G8" s="14">
+        <v>224.23</v>
+      </c>
+      <c r="H8" s="15">
+        <f t="shared" si="2"/>
+        <v>84.086249999999993</v>
+      </c>
+      <c r="I8" s="3">
+        <f t="shared" si="3"/>
+        <v>0.17471462628393652</v>
+      </c>
+      <c r="J8" s="2">
+        <f>J4/J6</f>
+        <v>0.97434670400000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="10">
+        <v>0.108</v>
+      </c>
+      <c r="D9">
+        <f>10*1000*1000*1000</f>
+        <v>10000000000</v>
+      </c>
+      <c r="E9" s="13">
+        <f t="shared" si="0"/>
+        <v>92592592592.59259</v>
+      </c>
+      <c r="F9" s="12">
+        <f t="shared" si="1"/>
+        <v>1.0800000000000001E-11</v>
+      </c>
+      <c r="G9" s="14">
+        <v>202.51</v>
+      </c>
+      <c r="H9" s="15">
+        <f t="shared" si="2"/>
+        <v>21.871079999999999</v>
+      </c>
+      <c r="I9" s="3">
+        <f t="shared" si="3"/>
+        <v>4.5443786215059873E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="10">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="D10">
+        <f>10*1000*1000*1000</f>
+        <v>10000000000</v>
+      </c>
+      <c r="E10" s="13">
+        <f t="shared" si="0"/>
+        <v>357142857142.85712</v>
+      </c>
+      <c r="F10" s="12">
+        <f t="shared" si="1"/>
+        <v>2.8000000000000002E-12</v>
+      </c>
+      <c r="G10" s="14">
+        <v>156.55000000000001</v>
+      </c>
+      <c r="H10" s="15">
+        <f t="shared" si="2"/>
+        <v>4.3834000000000009</v>
+      </c>
+      <c r="I10" s="3">
+        <f t="shared" si="3"/>
+        <v>9.1078397818074603E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C11" s="10"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="15"/>
+      <c r="J11" t="s">
+        <v>37</v>
+      </c>
+      <c r="K11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>96</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="10">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D12" s="14">
+        <v>299.39999999999998</v>
+      </c>
+      <c r="E12" s="13">
+        <f t="shared" ref="E12:E20" si="4">D12/C12</f>
+        <v>99799.999999999985</v>
+      </c>
+      <c r="F12" s="12">
+        <f t="shared" ref="F12:F20" si="5">1/E12</f>
+        <v>1.0020040080160322E-5</v>
+      </c>
+      <c r="G12" s="14">
+        <v>5835.49</v>
+      </c>
+      <c r="H12" s="15">
+        <f t="shared" ref="H12:H20" si="6">C12*G12</f>
+        <v>17.50647</v>
+      </c>
+      <c r="I12" s="3">
+        <f t="shared" ref="I12:I20" si="7">H12/$J$14</f>
+        <v>3.6374988343527585E-2</v>
+      </c>
+      <c r="J12" s="16">
+        <f>SUM(C12:C20)</f>
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <f>1/SUM(F12:F20)</f>
+        <v>31762.054518586843</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="10">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="D13" s="14">
+        <v>917.43</v>
+      </c>
+      <c r="E13" s="13">
+        <f t="shared" si="4"/>
+        <v>83402.727272727279</v>
+      </c>
+      <c r="F13" s="12">
+        <f t="shared" si="5"/>
+        <v>1.1990015587020263E-5</v>
+      </c>
+      <c r="G13" s="14">
+        <v>6610.41</v>
+      </c>
+      <c r="H13" s="15">
+        <f t="shared" si="6"/>
+        <v>72.71450999999999</v>
+      </c>
+      <c r="I13" s="3">
+        <f t="shared" si="7"/>
+        <v>0.15108639569572391</v>
+      </c>
+      <c r="J13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="10">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D14" s="14">
+        <v>4132.2299999999996</v>
+      </c>
+      <c r="E14" s="13">
+        <f t="shared" si="4"/>
+        <v>165289.19999999998</v>
+      </c>
+      <c r="F14" s="12">
+        <f t="shared" si="5"/>
+        <v>6.0500020570007003E-6</v>
+      </c>
+      <c r="G14" s="14">
+        <v>2986.65</v>
+      </c>
+      <c r="H14" s="15">
+        <f t="shared" si="6"/>
+        <v>74.666250000000005</v>
+      </c>
+      <c r="I14" s="3">
+        <f t="shared" si="7"/>
+        <v>0.15514172608212373</v>
+      </c>
+      <c r="J14" s="15">
+        <f>SUM(H12:H20)</f>
+        <v>481.27768000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="10">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="D15" s="14">
+        <v>25000</v>
+      </c>
+      <c r="E15" s="13">
+        <f t="shared" si="4"/>
+        <v>423728.81355932204</v>
+      </c>
+      <c r="F15" s="12">
+        <f t="shared" si="5"/>
+        <v>2.3599999999999999E-6</v>
+      </c>
+      <c r="G15" s="14">
+        <v>1208.3900000000001</v>
+      </c>
+      <c r="H15" s="15">
+        <f t="shared" si="6"/>
+        <v>71.295010000000005</v>
+      </c>
+      <c r="I15" s="3">
+        <f t="shared" si="7"/>
+        <v>0.14813695494875226</v>
+      </c>
+      <c r="J15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="10">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="D16" s="14">
+        <v>250000</v>
+      </c>
+      <c r="E16" s="13">
+        <f t="shared" si="4"/>
+        <v>1700680.2721088436</v>
+      </c>
+      <c r="F16" s="12">
+        <f t="shared" si="5"/>
+        <v>5.8800000000000002E-7</v>
+      </c>
+      <c r="G16" s="14">
+        <v>460.23</v>
+      </c>
+      <c r="H16" s="15">
+        <f t="shared" si="6"/>
+        <v>67.653809999999993</v>
+      </c>
+      <c r="I16" s="3">
+        <f t="shared" si="7"/>
+        <v>0.14057126023380098</v>
+      </c>
+      <c r="J16">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="10">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="D17" s="14">
+        <v>500000</v>
+      </c>
+      <c r="E17" s="13">
+        <f t="shared" si="4"/>
+        <v>2100840.3361344538</v>
+      </c>
+      <c r="F17" s="12">
+        <f t="shared" si="5"/>
+        <v>4.7600000000000003E-7</v>
+      </c>
+      <c r="G17" s="14">
+        <v>277.39999999999998</v>
+      </c>
+      <c r="H17" s="15">
+        <f t="shared" si="6"/>
+        <v>66.021199999999993</v>
+      </c>
+      <c r="I17" s="3">
+        <f t="shared" si="7"/>
+        <v>0.13717901898130824</v>
+      </c>
+      <c r="J17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="10">
+        <v>0.373</v>
+      </c>
+      <c r="D18">
+        <f>10*1000*1000*1000</f>
+        <v>10000000000</v>
+      </c>
+      <c r="E18" s="13">
+        <f t="shared" si="4"/>
+        <v>26809651474.53083</v>
+      </c>
+      <c r="F18" s="12">
+        <f t="shared" si="5"/>
+        <v>3.7300000000000003E-11</v>
+      </c>
+      <c r="G18" s="14">
+        <v>224.23</v>
+      </c>
+      <c r="H18" s="15">
+        <f t="shared" si="6"/>
+        <v>83.637789999999995</v>
+      </c>
+      <c r="I18" s="3">
+        <f t="shared" si="7"/>
+        <v>0.17378281494375553</v>
+      </c>
+      <c r="J18" s="2">
+        <f>J14/J16</f>
+        <v>0.96255536000000008</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="10">
+        <v>0.114</v>
+      </c>
+      <c r="D19">
+        <f>10*1000*1000*1000</f>
+        <v>10000000000</v>
+      </c>
+      <c r="E19" s="13">
+        <f t="shared" si="4"/>
+        <v>87719298245.614029</v>
+      </c>
+      <c r="F19" s="12">
+        <f t="shared" si="5"/>
+        <v>1.1400000000000001E-11</v>
+      </c>
+      <c r="G19" s="14">
+        <v>202.51</v>
+      </c>
+      <c r="H19" s="15">
+        <f t="shared" si="6"/>
+        <v>23.08614</v>
+      </c>
+      <c r="I19" s="3">
+        <f t="shared" si="7"/>
+        <v>4.796844100478543E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="D20">
+        <f>10*1000*1000*1000</f>
+        <v>10000000000</v>
+      </c>
+      <c r="E20" s="13">
+        <f t="shared" si="4"/>
+        <v>333333333333.33337</v>
+      </c>
+      <c r="F20" s="12">
+        <f t="shared" si="5"/>
+        <v>2.9999999999999997E-12</v>
+      </c>
+      <c r="G20" s="14">
+        <v>156.55000000000001</v>
+      </c>
+      <c r="H20" s="15">
+        <f t="shared" si="6"/>
+        <v>4.6965000000000003</v>
+      </c>
+      <c r="I20" s="3">
+        <f t="shared" si="7"/>
+        <v>9.7583997662222775E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C21" s="10"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="15"/>
+      <c r="J21" t="s">
+        <v>37</v>
+      </c>
+      <c r="K21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>94</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="10">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D22" s="14">
+        <v>299.39999999999998</v>
+      </c>
+      <c r="E22" s="13">
+        <f t="shared" ref="E22:E30" si="8">D22/C22</f>
+        <v>99799.999999999985</v>
+      </c>
+      <c r="F22" s="12">
+        <f t="shared" ref="F22:F30" si="9">1/E22</f>
+        <v>1.0020040080160322E-5</v>
+      </c>
+      <c r="G22" s="14">
+        <v>5835.49</v>
+      </c>
+      <c r="H22" s="15">
+        <f t="shared" ref="H22:H30" si="10">C22*G22</f>
+        <v>17.50647</v>
+      </c>
+      <c r="I22" s="3">
+        <f t="shared" ref="I22:I30" si="11">H22/$J$14</f>
+        <v>3.6374988343527585E-2</v>
+      </c>
+      <c r="J22" s="16">
+        <f>SUM(C22:C30)</f>
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <f>1/SUM(F22:F30)</f>
+        <v>32827.667549971957</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="10">
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="D23" s="14">
+        <v>917.43</v>
+      </c>
+      <c r="E23" s="13">
+        <f t="shared" si="8"/>
+        <v>87374.28571428571</v>
+      </c>
+      <c r="F23" s="12">
+        <f t="shared" si="9"/>
+        <v>1.1445014878519342E-5</v>
+      </c>
+      <c r="G23" s="14">
+        <v>6610.41</v>
+      </c>
+      <c r="H23" s="15">
+        <f t="shared" si="10"/>
+        <v>69.409305000000003</v>
+      </c>
+      <c r="I23" s="3">
+        <f t="shared" si="11"/>
+        <v>0.1442188322550092</v>
+      </c>
+      <c r="J23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="10">
+        <v>2.35E-2</v>
+      </c>
+      <c r="D24" s="14">
+        <v>4132.2299999999996</v>
+      </c>
+      <c r="E24" s="13">
+        <f t="shared" si="8"/>
+        <v>175839.57446808508</v>
+      </c>
+      <c r="F24" s="12">
+        <f t="shared" si="9"/>
+        <v>5.6870019335806581E-6</v>
+      </c>
+      <c r="G24" s="14">
+        <v>2986.65</v>
+      </c>
+      <c r="H24" s="15">
+        <f t="shared" si="10"/>
+        <v>70.186275000000009</v>
+      </c>
+      <c r="I24" s="3">
+        <f t="shared" si="11"/>
+        <v>0.14583322251719633</v>
+      </c>
+      <c r="J24" s="15">
+        <f>SUM(H22:H30)</f>
+        <v>470.52424000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="10">
+        <v>5.6500000000000002E-2</v>
+      </c>
+      <c r="D25" s="14">
+        <v>25000</v>
+      </c>
+      <c r="E25" s="13">
+        <f t="shared" si="8"/>
+        <v>442477.87610619469</v>
+      </c>
+      <c r="F25" s="12">
+        <f t="shared" si="9"/>
+        <v>2.26E-6</v>
+      </c>
+      <c r="G25" s="14">
+        <v>1208.3900000000001</v>
+      </c>
+      <c r="H25" s="15">
+        <f t="shared" si="10"/>
+        <v>68.274035000000012</v>
+      </c>
+      <c r="I25" s="3">
+        <f t="shared" si="11"/>
+        <v>0.14185996533227971</v>
+      </c>
+      <c r="J25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="10">
+        <v>0.14349999999999999</v>
+      </c>
+      <c r="D26" s="14">
+        <v>250000</v>
+      </c>
+      <c r="E26" s="13">
+        <f t="shared" si="8"/>
+        <v>1742160.2787456447</v>
+      </c>
+      <c r="F26" s="12">
+        <f t="shared" si="9"/>
+        <v>5.7399999999999993E-7</v>
+      </c>
+      <c r="G26" s="14">
+        <v>460.23</v>
+      </c>
+      <c r="H26" s="15">
+        <f t="shared" si="10"/>
+        <v>66.043004999999994</v>
+      </c>
+      <c r="I26" s="3">
+        <f t="shared" si="11"/>
+        <v>0.13722432546632951</v>
+      </c>
+      <c r="J26">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="10">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="D27" s="14">
+        <v>500000</v>
+      </c>
+      <c r="E27" s="13">
+        <f t="shared" si="8"/>
+        <v>2100840.3361344538</v>
+      </c>
+      <c r="F27" s="12">
+        <f t="shared" si="9"/>
+        <v>4.7600000000000003E-7</v>
+      </c>
+      <c r="G27" s="14">
+        <v>277.39999999999998</v>
+      </c>
+      <c r="H27" s="15">
+        <f t="shared" si="10"/>
+        <v>66.021199999999993</v>
+      </c>
+      <c r="I27" s="3">
+        <f t="shared" si="11"/>
+        <v>0.13717901898130824</v>
+      </c>
+      <c r="J27" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="10">
+        <v>0.375</v>
+      </c>
+      <c r="D28">
+        <f>10*1000*1000*1000</f>
+        <v>10000000000</v>
+      </c>
+      <c r="E28" s="13">
+        <f t="shared" si="8"/>
+        <v>26666666666.666668</v>
+      </c>
+      <c r="F28" s="12">
+        <f t="shared" si="9"/>
+        <v>3.75E-11</v>
+      </c>
+      <c r="G28" s="14">
+        <v>224.23</v>
+      </c>
+      <c r="H28" s="15">
+        <f t="shared" si="10"/>
+        <v>84.086249999999993</v>
+      </c>
+      <c r="I28" s="3">
+        <f t="shared" si="11"/>
+        <v>0.17471462628393652</v>
+      </c>
+      <c r="J28" s="2">
+        <f>J24/J26</f>
+        <v>0.94104848000000008</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="10">
+        <v>0.12</v>
+      </c>
+      <c r="D29">
+        <f>10*1000*1000*1000</f>
+        <v>10000000000</v>
+      </c>
+      <c r="E29" s="13">
+        <f t="shared" si="8"/>
+        <v>83333333333.333344</v>
+      </c>
+      <c r="F29" s="12">
+        <f t="shared" si="9"/>
+        <v>1.1999999999999999E-11</v>
+      </c>
+      <c r="G29" s="14">
+        <v>202.51</v>
+      </c>
+      <c r="H29" s="15">
+        <f t="shared" si="10"/>
+        <v>24.301199999999998</v>
+      </c>
+      <c r="I29" s="3">
+        <f t="shared" si="11"/>
+        <v>5.0493095794510973E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="D30">
+        <f>10*1000*1000*1000</f>
+        <v>10000000000</v>
+      </c>
+      <c r="E30" s="13">
+        <f t="shared" si="8"/>
+        <v>333333333333.33337</v>
+      </c>
+      <c r="F30" s="12">
+        <f t="shared" si="9"/>
+        <v>2.9999999999999997E-12</v>
+      </c>
+      <c r="G30" s="14">
+        <v>156.55000000000001</v>
+      </c>
+      <c r="H30" s="15">
+        <f t="shared" si="10"/>
+        <v>4.6965000000000003</v>
+      </c>
+      <c r="I30" s="3">
+        <f t="shared" si="11"/>
+        <v>9.7583997662222775E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C31" s="10"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="15"/>
+      <c r="J31" t="s">
+        <v>37</v>
+      </c>
+      <c r="K31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>92</v>
+      </c>
+      <c r="B32" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" s="10">
+        <v>2.8E-3</v>
+      </c>
+      <c r="D32" s="14">
+        <v>299.39999999999998</v>
+      </c>
+      <c r="E32" s="13">
+        <f t="shared" ref="E32:E40" si="12">D32/C32</f>
+        <v>106928.57142857142</v>
+      </c>
+      <c r="F32" s="12">
+        <f t="shared" ref="F32:F40" si="13">1/E32</f>
+        <v>9.3520374081496332E-6</v>
+      </c>
+      <c r="G32" s="14">
+        <v>5835.49</v>
+      </c>
+      <c r="H32" s="15">
+        <f t="shared" ref="H32:H40" si="14">C32*G32</f>
+        <v>16.339372000000001</v>
+      </c>
+      <c r="I32" s="3">
+        <f t="shared" ref="I32:I40" si="15">H32/$J$14</f>
+        <v>3.3949989120625745E-2</v>
+      </c>
+      <c r="J32" s="16">
+        <f>SUM(C32:C40)</f>
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <f>1/SUM(F32:F40)</f>
+        <v>34334.635907869051</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" s="10">
+        <v>1.0200000000000001E-2</v>
+      </c>
+      <c r="D33" s="14">
+        <v>917.43</v>
+      </c>
+      <c r="E33" s="13">
+        <f t="shared" si="12"/>
+        <v>89944.117647058811</v>
+      </c>
+      <c r="F33" s="12">
+        <f t="shared" si="13"/>
+        <v>1.1118014453418791E-5</v>
+      </c>
+      <c r="G33" s="14">
+        <v>6610.41</v>
+      </c>
+      <c r="H33" s="15">
+        <f t="shared" si="14"/>
+        <v>67.426181999999997</v>
+      </c>
+      <c r="I33" s="3">
+        <f t="shared" si="15"/>
+        <v>0.14009829419058037</v>
+      </c>
+      <c r="J33" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" s="10">
+        <v>2.2499999999999999E-2</v>
+      </c>
+      <c r="D34" s="14">
+        <v>4132.2299999999996</v>
+      </c>
+      <c r="E34" s="13">
+        <f t="shared" si="12"/>
+        <v>183654.66666666666</v>
+      </c>
+      <c r="F34" s="12">
+        <f t="shared" si="13"/>
+        <v>5.4450018513006294E-6</v>
+      </c>
+      <c r="G34" s="14">
+        <v>2986.65</v>
+      </c>
+      <c r="H34" s="15">
+        <f t="shared" si="14"/>
+        <v>67.199624999999997</v>
+      </c>
+      <c r="I34" s="3">
+        <f t="shared" si="15"/>
+        <v>0.13962755347391134</v>
+      </c>
+      <c r="J34" s="15">
+        <f>SUM(H32:H40)</f>
+        <v>460.64382400000005</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35" s="10">
+        <v>5.5500000000000001E-2</v>
+      </c>
+      <c r="D35" s="14">
+        <v>25000</v>
+      </c>
+      <c r="E35" s="13">
+        <f t="shared" si="12"/>
+        <v>450450.45045045047</v>
+      </c>
+      <c r="F35" s="12">
+        <f t="shared" si="13"/>
+        <v>2.2199999999999999E-6</v>
+      </c>
+      <c r="G35" s="14">
+        <v>1208.3900000000001</v>
+      </c>
+      <c r="H35" s="15">
+        <f t="shared" si="14"/>
+        <v>67.065645000000004</v>
+      </c>
+      <c r="I35" s="3">
+        <f t="shared" si="15"/>
+        <v>0.13934916948569068</v>
+      </c>
+      <c r="J35" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>28</v>
+      </c>
+      <c r="C36" s="10">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="D36" s="14">
+        <v>250000</v>
+      </c>
+      <c r="E36" s="13">
+        <f t="shared" si="12"/>
+        <v>1851851.8518518517</v>
+      </c>
+      <c r="F36" s="12">
+        <f t="shared" si="13"/>
+        <v>5.4000000000000002E-7</v>
+      </c>
+      <c r="G36" s="14">
+        <v>460.23</v>
+      </c>
+      <c r="H36" s="15">
+        <f t="shared" si="14"/>
+        <v>62.131050000000009</v>
+      </c>
+      <c r="I36" s="3">
+        <f t="shared" si="15"/>
+        <v>0.12909605531675603</v>
+      </c>
+      <c r="J36">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>29</v>
+      </c>
+      <c r="C37" s="10">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="D37" s="14">
+        <v>500000</v>
+      </c>
+      <c r="E37" s="13">
+        <f t="shared" si="12"/>
+        <v>2222222.222222222</v>
+      </c>
+      <c r="F37" s="12">
+        <f t="shared" si="13"/>
+        <v>4.5000000000000003E-7</v>
+      </c>
+      <c r="G37" s="14">
+        <v>277.39999999999998</v>
+      </c>
+      <c r="H37" s="15">
+        <f t="shared" si="14"/>
+        <v>62.414999999999999</v>
+      </c>
+      <c r="I37" s="3">
+        <f t="shared" si="15"/>
+        <v>0.12968604735627881</v>
+      </c>
+      <c r="J37" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>30</v>
+      </c>
+      <c r="C38" s="10">
+        <v>0.38700000000000001</v>
+      </c>
+      <c r="D38">
+        <f>10*1000*1000*1000</f>
+        <v>10000000000</v>
+      </c>
+      <c r="E38" s="13">
+        <f t="shared" si="12"/>
+        <v>25839793281.653748</v>
+      </c>
+      <c r="F38" s="12">
+        <f t="shared" si="13"/>
+        <v>3.8699999999999999E-11</v>
+      </c>
+      <c r="G38" s="14">
+        <v>224.23</v>
+      </c>
+      <c r="H38" s="15">
+        <f t="shared" si="14"/>
+        <v>86.777010000000004</v>
+      </c>
+      <c r="I38" s="3">
+        <f t="shared" si="15"/>
+        <v>0.18030549432502252</v>
+      </c>
+      <c r="J38" s="2">
+        <f>J34/J36</f>
+        <v>0.92128764800000007</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>31</v>
+      </c>
+      <c r="C39" s="10">
+        <v>0.129</v>
+      </c>
+      <c r="D39">
+        <f>10*1000*1000*1000</f>
+        <v>10000000000</v>
+      </c>
+      <c r="E39" s="13">
+        <f t="shared" si="12"/>
+        <v>77519379844.961243</v>
+      </c>
+      <c r="F39" s="12">
+        <f t="shared" si="13"/>
+        <v>1.29E-11</v>
+      </c>
+      <c r="G39" s="14">
+        <v>202.51</v>
+      </c>
+      <c r="H39" s="15">
+        <f t="shared" si="14"/>
+        <v>26.12379</v>
+      </c>
+      <c r="I39" s="3">
+        <f t="shared" si="15"/>
+        <v>5.4280077979099298E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>32</v>
+      </c>
+      <c r="C40" s="10">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="D40">
+        <f>10*1000*1000*1000</f>
+        <v>10000000000</v>
+      </c>
+      <c r="E40" s="13">
+        <f t="shared" si="12"/>
+        <v>303030303030.30304</v>
+      </c>
+      <c r="F40" s="12">
+        <f t="shared" si="13"/>
+        <v>3.3000000000000001E-12</v>
+      </c>
+      <c r="G40" s="14">
+        <v>156.55000000000001</v>
+      </c>
+      <c r="H40" s="15">
+        <f t="shared" si="14"/>
+        <v>5.1661500000000009</v>
+      </c>
+      <c r="I40" s="3">
+        <f t="shared" si="15"/>
+        <v>1.0734239742844506E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C41" s="10"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="12"/>
+      <c r="J41" t="s">
+        <v>37</v>
+      </c>
+      <c r="K41" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>87</v>
+      </c>
+      <c r="B42" t="s">
+        <v>24</v>
+      </c>
+      <c r="C42" s="10">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="D42" s="14">
+        <v>299.39999999999998</v>
+      </c>
+      <c r="E42" s="13">
+        <f t="shared" ref="E42:E50" si="16">D42/C42</f>
+        <v>119759.99999999999</v>
+      </c>
+      <c r="F42" s="12">
+        <f t="shared" ref="F42:F50" si="17">1/E42</f>
+        <v>8.3500334001336022E-6</v>
+      </c>
+      <c r="G42" s="14">
+        <v>5835.49</v>
+      </c>
+      <c r="H42" s="15">
+        <f t="shared" ref="H42:H50" si="18">C42*G42</f>
+        <v>14.588725</v>
+      </c>
+      <c r="I42" s="3">
+        <f t="shared" ref="I42:I50" si="19">H42/$J$14</f>
+        <v>3.0312490286272989E-2</v>
+      </c>
+      <c r="J42" s="16">
+        <f>SUM(C42:C50)</f>
+        <v>1</v>
+      </c>
+      <c r="K42">
+        <f>1/SUM(F42:F50)</f>
+        <v>37842.796788456544</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>25</v>
+      </c>
+      <c r="C43" s="10">
+        <v>9.4999999999999998E-3</v>
+      </c>
+      <c r="D43" s="14">
+        <v>917.43</v>
+      </c>
+      <c r="E43" s="13">
+        <f t="shared" si="16"/>
+        <v>96571.578947368413</v>
+      </c>
+      <c r="F43" s="12">
+        <f t="shared" si="17"/>
+        <v>1.0355013461517501E-5</v>
+      </c>
+      <c r="G43" s="14">
+        <v>6610.41</v>
+      </c>
+      <c r="H43" s="15">
+        <f t="shared" si="18"/>
+        <v>62.798894999999995</v>
+      </c>
+      <c r="I43" s="3">
+        <f t="shared" si="19"/>
+        <v>0.13048370537357973</v>
+      </c>
+      <c r="J43" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>26</v>
+      </c>
+      <c r="C44" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="D44" s="14">
+        <v>4132.2299999999996</v>
+      </c>
+      <c r="E44" s="13">
+        <f t="shared" si="16"/>
+        <v>206611.49999999997</v>
+      </c>
+      <c r="F44" s="12">
+        <f t="shared" si="17"/>
+        <v>4.8400016456005601E-6</v>
+      </c>
+      <c r="G44" s="14">
+        <v>2986.65</v>
+      </c>
+      <c r="H44" s="15">
+        <f t="shared" si="18"/>
+        <v>59.733000000000004</v>
+      </c>
+      <c r="I44" s="3">
+        <f t="shared" si="19"/>
+        <v>0.12411338086569899</v>
+      </c>
+      <c r="J44" s="15">
+        <f>SUM(H42:H50)</f>
+        <v>436.35603999999995</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
+        <v>27</v>
+      </c>
+      <c r="C45" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="D45" s="14">
+        <v>25000</v>
+      </c>
+      <c r="E45" s="13">
+        <f t="shared" si="16"/>
+        <v>500000</v>
+      </c>
+      <c r="F45" s="12">
+        <f t="shared" si="17"/>
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="G45" s="14">
+        <v>1208.3900000000001</v>
+      </c>
+      <c r="H45" s="15">
+        <f t="shared" si="18"/>
+        <v>60.419500000000006</v>
+      </c>
+      <c r="I45" s="3">
+        <f t="shared" si="19"/>
+        <v>0.12553979232945106</v>
+      </c>
+      <c r="J45" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
+        <v>28</v>
+      </c>
+      <c r="C46" s="10">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="D46" s="14">
+        <v>250000</v>
+      </c>
+      <c r="E46" s="13">
+        <f t="shared" si="16"/>
+        <v>2100840.3361344538</v>
+      </c>
+      <c r="F46" s="12">
+        <f t="shared" si="17"/>
+        <v>4.7600000000000003E-7</v>
+      </c>
+      <c r="G46" s="14">
+        <v>460.23</v>
+      </c>
+      <c r="H46" s="15">
+        <f t="shared" si="18"/>
+        <v>54.76737</v>
+      </c>
+      <c r="I46" s="3">
+        <f t="shared" si="19"/>
+        <v>0.11379578209402937</v>
+      </c>
+      <c r="J46">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>29</v>
+      </c>
+      <c r="C47" s="10">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="D47" s="14">
+        <v>500000</v>
+      </c>
+      <c r="E47" s="13">
+        <f t="shared" si="16"/>
+        <v>2475247.5247524753</v>
+      </c>
+      <c r="F47" s="12">
+        <f t="shared" si="17"/>
+        <v>4.0399999999999996E-7</v>
+      </c>
+      <c r="G47" s="14">
+        <v>277.39999999999998</v>
+      </c>
+      <c r="H47" s="15">
+        <f t="shared" si="18"/>
+        <v>56.034799999999997</v>
+      </c>
+      <c r="I47" s="3">
+        <f t="shared" si="19"/>
+        <v>0.11642925140430363</v>
+      </c>
+      <c r="J47" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
+        <v>30</v>
+      </c>
+      <c r="C48" s="10">
+        <v>0.40799999999999997</v>
+      </c>
+      <c r="D48">
+        <f>10*1000*1000*1000</f>
+        <v>10000000000</v>
+      </c>
+      <c r="E48" s="13">
+        <f t="shared" si="16"/>
+        <v>24509803921.56863</v>
+      </c>
+      <c r="F48" s="12">
+        <f t="shared" si="17"/>
+        <v>4.0799999999999997E-11</v>
+      </c>
+      <c r="G48" s="14">
+        <v>224.23</v>
+      </c>
+      <c r="H48" s="15">
+        <f t="shared" si="18"/>
+        <v>91.485839999999996</v>
+      </c>
+      <c r="I48" s="3">
+        <f t="shared" si="19"/>
+        <v>0.19008951339692293</v>
+      </c>
+      <c r="J48" s="2">
+        <f>J44/J46</f>
+        <v>0.87271207999999989</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
+        <v>31</v>
+      </c>
+      <c r="C49" s="10">
+        <v>0.151</v>
+      </c>
+      <c r="D49">
+        <f>10*1000*1000*1000</f>
+        <v>10000000000</v>
+      </c>
+      <c r="E49" s="13">
+        <f t="shared" si="16"/>
+        <v>66225165562.91391</v>
+      </c>
+      <c r="F49" s="12">
+        <f t="shared" si="17"/>
+        <v>1.5099999999999998E-11</v>
+      </c>
+      <c r="G49" s="14">
+        <v>202.51</v>
+      </c>
+      <c r="H49" s="15">
+        <f t="shared" si="18"/>
+        <v>30.579009999999997</v>
+      </c>
+      <c r="I49" s="3">
+        <f t="shared" si="19"/>
+        <v>6.3537145541426296E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>32</v>
+      </c>
+      <c r="C50" s="10">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="D50">
+        <f>10*1000*1000*1000</f>
+        <v>10000000000</v>
+      </c>
+      <c r="E50" s="13">
+        <f t="shared" si="16"/>
+        <v>263157894736.8421</v>
+      </c>
+      <c r="F50" s="12">
+        <f t="shared" si="17"/>
+        <v>3.8E-12</v>
+      </c>
+      <c r="G50" s="14">
+        <v>156.55000000000001</v>
+      </c>
+      <c r="H50" s="15">
+        <f t="shared" si="18"/>
+        <v>5.9489000000000001</v>
+      </c>
+      <c r="I50" s="3">
+        <f t="shared" si="19"/>
+        <v>1.236063970388155E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="C1:C50">
+    <cfRule type="dataBar" priority="6">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{0238CF3D-A355-4F82-A873-50B8A2BF113B}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I1:K1 I2:I50">
+    <cfRule type="dataBar" priority="9">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{5FDAEAAF-DE09-4655-98AB-9ABDFF7262B8}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J11">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{0C0384E5-7F4A-4679-AAEB-695365FE3A95}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J21">
+    <cfRule type="dataBar" priority="8">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{FCF08763-6D51-489B-9184-4FCFC3726F6F}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J31">
+    <cfRule type="dataBar" priority="7">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{BACCEBEC-DC2D-455B-9DB4-870CF168608E}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J41:K41">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{D66C5BA9-FAE2-4FEC-8115-DE06A18AA107}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K11">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{E0E812BC-27FC-40AF-B089-49494951A4E6}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K21">
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{50BB953B-3D53-4C07-8FDF-534C0166D742}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K31">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{15859F68-A8D8-4268-970D-74F882D2E96A}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L1">
+    <cfRule type="dataBar" priority="11">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{8AACFC7B-F168-482B-90AA-394349045FC0}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{0238CF3D-A355-4F82-A873-50B8A2BF113B}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFFB628"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C1:C50</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{5FDAEAAF-DE09-4655-98AB-9ABDFF7262B8}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>I1:K1 I2:I50</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{0C0384E5-7F4A-4679-AAEB-695365FE3A95}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>J11</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{FCF08763-6D51-489B-9184-4FCFC3726F6F}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>J21</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{BACCEBEC-DC2D-455B-9DB4-870CF168608E}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>J31</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{D66C5BA9-FAE2-4FEC-8115-DE06A18AA107}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>J41:K41</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{E0E812BC-27FC-40AF-B089-49494951A4E6}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>K11</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{50BB953B-3D53-4C07-8FDF-534C0166D742}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>K21</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{15859F68-A8D8-4268-970D-74F882D2E96A}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>K31</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{8AACFC7B-F168-482B-90AA-394349045FC0}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>L1</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AECCE576-D102-4F5C-9B01-9D126464FCEA}">
   <dimension ref="A1:N20"/>
   <sheetViews>
@@ -4444,7 +7149,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{848E8559-D335-490A-ACC8-3493CAC0BFF7}">
   <dimension ref="A1:N20"/>
   <sheetViews>
@@ -4850,7 +7555,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28479E39-C0E6-4809-B2B0-1A4BA38BE015}">
   <dimension ref="A1:N20"/>
   <sheetViews>
@@ -5256,7 +7961,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AAD375E-8EDE-4ED3-8BB6-E5C5E84F8631}">
   <dimension ref="A1:N20"/>
   <sheetViews>
@@ -5662,7 +8367,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8E559C7-EBD4-4921-BF76-D6D44CAEBB12}">
   <dimension ref="A1:N20"/>
   <sheetViews>
@@ -6068,7 +8773,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B59E963-CE31-4015-B911-08EADC4B63DF}">
   <dimension ref="A1:N20"/>
   <sheetViews>
@@ -6474,7 +9179,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD5EAB59-1B12-4F1D-99F9-90DA810EA13F}">
   <dimension ref="A1:N20"/>
   <sheetViews>
@@ -6878,409 +9583,4 @@
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9F3E64E-141C-4FD7-A2FA-50296C52A2FE}">
-  <dimension ref="A1:N20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="2" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5" customWidth="1"/>
-    <col min="7" max="7" width="9.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>10000</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2" s="3">
-        <f>B2/10000000</f>
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>100</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2" s="3">
-        <f>E2/10000000</f>
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <f>B15+E8</f>
-        <v>10000000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>5000</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3" s="3">
-        <f t="shared" ref="C3:C15" si="0">B3/10000000</f>
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>20</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3" s="3">
-        <f t="shared" ref="F3:F8" si="1">E3/10000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>2500</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>10</v>
-      </c>
-      <c r="E4">
-        <v>350</v>
-      </c>
-      <c r="F4" s="3">
-        <f t="shared" si="1"/>
-        <v>3.4999999999999997E-5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>1000</v>
-      </c>
-      <c r="B5">
-        <v>550</v>
-      </c>
-      <c r="C5" s="3">
-        <f t="shared" si="0"/>
-        <v>5.5000000000000002E-5</v>
-      </c>
-      <c r="D5">
-        <v>5</v>
-      </c>
-      <c r="E5">
-        <v>4650</v>
-      </c>
-      <c r="F5" s="3">
-        <f t="shared" si="1"/>
-        <v>4.6500000000000003E-4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>500</v>
-      </c>
-      <c r="B6">
-        <v>3450</v>
-      </c>
-      <c r="C6" s="3">
-        <f t="shared" si="0"/>
-        <v>3.4499999999999998E-4</v>
-      </c>
-      <c r="D6">
-        <v>3</v>
-      </c>
-      <c r="E6">
-        <v>24000</v>
-      </c>
-      <c r="F6" s="3">
-        <f t="shared" si="1"/>
-        <v>2.3999999999999998E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>250</v>
-      </c>
-      <c r="B7">
-        <v>27000</v>
-      </c>
-      <c r="C7" s="3">
-        <f t="shared" si="0"/>
-        <v>2.7000000000000001E-3</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="E7">
-        <v>96000</v>
-      </c>
-      <c r="F7" s="3">
-        <f t="shared" si="1"/>
-        <v>9.5999999999999992E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>100</v>
-      </c>
-      <c r="B8">
-        <v>45500</v>
-      </c>
-      <c r="C8" s="3">
-        <f t="shared" si="0"/>
-        <v>4.5500000000000002E-3</v>
-      </c>
-      <c r="D8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8">
-        <f>SUM(E2:E7)</f>
-        <v>125000</v>
-      </c>
-      <c r="F8" s="3">
-        <f t="shared" si="1"/>
-        <v>1.2500000000000001E-2</v>
-      </c>
-      <c r="I8" t="s">
-        <v>4</v>
-      </c>
-      <c r="K8" s="2"/>
-      <c r="N8" s="8">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>50</v>
-      </c>
-      <c r="B9">
-        <v>91000</v>
-      </c>
-      <c r="C9" s="3">
-        <f t="shared" si="0"/>
-        <v>9.1000000000000004E-3</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6">
-        <f>SUMPRODUCT(D2:D7, E2:E7)/SUM(E2:E7)</f>
-        <v>2.3260000000000001</v>
-      </c>
-      <c r="I9" t="s">
-        <v>3</v>
-      </c>
-      <c r="K9" s="2"/>
-      <c r="N9" s="3">
-        <v>0.67500000000000004</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>25</v>
-      </c>
-      <c r="B10">
-        <v>175000</v>
-      </c>
-      <c r="C10" s="3">
-        <f t="shared" si="0"/>
-        <v>1.7500000000000002E-2</v>
-      </c>
-      <c r="D10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" t="s">
-        <v>5</v>
-      </c>
-      <c r="K10" s="2"/>
-      <c r="N10" s="3">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>575000</v>
-      </c>
-      <c r="C11" s="3">
-        <f t="shared" si="0"/>
-        <v>5.7500000000000002E-2</v>
-      </c>
-      <c r="D11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" t="s">
-        <v>14</v>
-      </c>
-      <c r="K11" s="2"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>5</v>
-      </c>
-      <c r="B12">
-        <v>1407500</v>
-      </c>
-      <c r="C12" s="3">
-        <f t="shared" si="0"/>
-        <v>0.14074999999999999</v>
-      </c>
-      <c r="D12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>2</v>
-      </c>
-      <c r="B13">
-        <v>2850000</v>
-      </c>
-      <c r="C13" s="3">
-        <f t="shared" si="0"/>
-        <v>0.28499999999999998</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13" s="9">
-        <v>1.2E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>1</v>
-      </c>
-      <c r="B14">
-        <v>4700000</v>
-      </c>
-      <c r="C14" s="3">
-        <f t="shared" si="0"/>
-        <v>0.47</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14" s="9">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15">
-        <f>SUM(B2:B14)</f>
-        <v>9875000</v>
-      </c>
-      <c r="C15" s="3">
-        <f t="shared" si="0"/>
-        <v>0.98750000000000004</v>
-      </c>
-      <c r="D15">
-        <v>2</v>
-      </c>
-      <c r="E15" s="9">
-        <v>6.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="7">
-        <f>SUMPRODUCT(A2:A14, B2:B14)/SUM(B2:B14)</f>
-        <v>4.6265822784810124</v>
-      </c>
-      <c r="D16">
-        <v>3</v>
-      </c>
-      <c r="E16" s="9">
-        <v>3.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D17">
-        <v>4</v>
-      </c>
-      <c r="E17" s="9">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D18">
-        <v>5</v>
-      </c>
-      <c r="E18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D19">
-        <v>6</v>
-      </c>
-      <c r="E19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
 </file>